--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,34 +85,34 @@
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.000044749049879</v>
       </c>
       <c r="D3">
-        <v>0.9999328765777147</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="E3">
+        <v>1.000024917127633</v>
+      </c>
+      <c r="F3">
+        <v>0.9999855787532563</v>
+      </c>
+      <c r="G3">
         <v>1.000016780317758</v>
       </c>
-      <c r="F3">
-        <v>1.000044749049879</v>
-      </c>
-      <c r="G3">
-        <v>0.9999855787532563</v>
-      </c>
       <c r="H3">
-        <v>1.000024917127633</v>
+        <v>0.9999563557678227</v>
       </c>
       <c r="I3">
-        <v>1.000044749049879</v>
+        <v>0.999986573190206</v>
       </c>
       <c r="J3">
         <v>0.9999328765777147</v>
       </c>
       <c r="K3">
-        <v>0.999986573190206</v>
+        <v>0.9999328765777147</v>
       </c>
       <c r="L3">
         <v>1.000016780317758</v>
       </c>
       <c r="M3">
-        <v>0.9999563557678227</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="N3">
         <v>1.000044749049879</v>
@@ -764,7 +716,7 @@
         <v>0.9999955763877534</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.000086387327034</v>
       </c>
       <c r="D4">
-        <v>0.9998704173582805</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="E4">
+        <v>1.000048100206401</v>
+      </c>
+      <c r="F4">
+        <v>0.9999721583898542</v>
+      </c>
+      <c r="G4">
         <v>1.000032394807686</v>
       </c>
-      <c r="F4">
-        <v>1.000086387327034</v>
-      </c>
-      <c r="G4">
-        <v>0.9999721583898544</v>
-      </c>
       <c r="H4">
-        <v>1.000048100206401</v>
+        <v>0.9999157450960973</v>
       </c>
       <c r="I4">
-        <v>1.000086387327034</v>
+        <v>0.9999740819035061</v>
       </c>
       <c r="J4">
         <v>0.9998704173582805</v>
       </c>
       <c r="K4">
-        <v>0.9999740819035061</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="L4">
         <v>1.000032394807686</v>
       </c>
       <c r="M4">
-        <v>0.9999157450960975</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="N4">
         <v>1.000086387327034</v>
@@ -826,16 +778,16 @@
         <v>0.9999963998310001</v>
       </c>
       <c r="U4">
-        <v>0.9999903394707137</v>
+        <v>0.9999903394707136</v>
       </c>
       <c r="V4">
         <v>1.000009549041978</v>
       </c>
       <c r="W4">
-        <v>0.9999914599870682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999914599870681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.000165550748697</v>
       </c>
       <c r="D5">
-        <v>0.9997516678755942</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="E5">
+        <v>1.000092172566503</v>
+      </c>
+      <c r="F5">
+        <v>0.9999466435176133</v>
+      </c>
+      <c r="G5">
         <v>1.000062082567932</v>
       </c>
-      <c r="F5">
-        <v>1.000165550748697</v>
-      </c>
-      <c r="G5">
-        <v>0.9999466435176133</v>
-      </c>
       <c r="H5">
-        <v>1.000092172566503</v>
+        <v>0.9998385332142097</v>
       </c>
       <c r="I5">
-        <v>1.000165550748697</v>
+        <v>0.9999503300970641</v>
       </c>
       <c r="J5">
         <v>0.9997516678755942</v>
       </c>
       <c r="K5">
-        <v>0.9999503300970641</v>
+        <v>0.9997516678755942</v>
       </c>
       <c r="L5">
         <v>1.000062082567932</v>
       </c>
       <c r="M5">
-        <v>0.9998385332142097</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="N5">
         <v>1.000165550748697</v>
@@ -906,7 +858,7 @@
         <v>0.9999836328944433</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.000242805985243</v>
       </c>
       <c r="D6">
-        <v>0.999635776492207</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="E6">
+        <v>1.000135193920335</v>
+      </c>
+      <c r="F6">
+        <v>0.9999217445469987</v>
+      </c>
+      <c r="G6">
         <v>1.000091054304642</v>
       </c>
-      <c r="F6">
-        <v>1.000242805985243</v>
-      </c>
-      <c r="G6">
-        <v>0.9999217445469989</v>
-      </c>
       <c r="H6">
-        <v>1.000135193920335</v>
+        <v>0.9997631822151327</v>
       </c>
       <c r="I6">
-        <v>1.000242805985243</v>
+        <v>0.999927158184032</v>
       </c>
       <c r="J6">
         <v>0.999635776492207</v>
       </c>
       <c r="K6">
-        <v>0.999927158184032</v>
+        <v>0.999635776492207</v>
       </c>
       <c r="L6">
         <v>1.000091054304642</v>
       </c>
       <c r="M6">
-        <v>0.9997631822151327</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="N6">
         <v>1.000242805985243</v>
@@ -977,7 +929,7 @@
         <v>0.9999759962441541</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,34 +940,34 @@
         <v>1.000003763201912</v>
       </c>
       <c r="D7">
-        <v>0.9999943557769397</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="E7">
+        <v>1.000002097075331</v>
+      </c>
+      <c r="F7">
+        <v>0.9999987889397211</v>
+      </c>
+      <c r="G7">
         <v>1.000001410230164</v>
       </c>
-      <c r="F7">
-        <v>1.000003763201912</v>
-      </c>
-      <c r="G7">
-        <v>0.9999987889397211</v>
-      </c>
       <c r="H7">
-        <v>1.000002097075331</v>
+        <v>0.9999963300318389</v>
       </c>
       <c r="I7">
-        <v>1.000003763201912</v>
+        <v>0.9999988688745989</v>
       </c>
       <c r="J7">
         <v>0.9999943557769397</v>
       </c>
       <c r="K7">
-        <v>0.9999988688745989</v>
+        <v>0.9999943557769397</v>
       </c>
       <c r="L7">
         <v>1.000001410230164</v>
       </c>
       <c r="M7">
-        <v>0.9999963300318389</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="N7">
         <v>1.000003763201912</v>
@@ -1024,7 +976,7 @@
         <v>1.000001410230164</v>
       </c>
       <c r="P7">
-        <v>0.9999978830035519</v>
+        <v>0.9999978830035517</v>
       </c>
       <c r="Q7">
         <v>1.000000099584943</v>
@@ -1045,10 +997,10 @@
         <v>1.00000041627013</v>
       </c>
       <c r="W7">
-        <v>0.9999996280450838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999996280450837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,34 +1011,34 @@
         <v>1.000011010203222</v>
       </c>
       <c r="D8">
-        <v>0.9999834855089936</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="E8">
+        <v>1.000006132110835</v>
+      </c>
+      <c r="F8">
+        <v>0.9999964531423976</v>
+      </c>
+      <c r="G8">
         <v>1.000004127906525</v>
       </c>
-      <c r="F8">
-        <v>1.000011010203222</v>
-      </c>
-      <c r="G8">
-        <v>0.9999964531423978</v>
-      </c>
       <c r="H8">
-        <v>1.000006132110835</v>
+        <v>0.9999892620442824</v>
       </c>
       <c r="I8">
-        <v>1.000011010203222</v>
+        <v>0.9999966946855027</v>
       </c>
       <c r="J8">
         <v>0.9999834855089936</v>
       </c>
       <c r="K8">
-        <v>0.9999966946855027</v>
+        <v>0.9999834855089936</v>
       </c>
       <c r="L8">
         <v>1.000004127906525</v>
       </c>
       <c r="M8">
-        <v>0.9999892620442822</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="N8">
         <v>1.000011010203222</v>
@@ -1101,25 +1053,25 @@
         <v>1.000000290524461</v>
       </c>
       <c r="R8">
-        <v>0.9999995412062468</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="S8">
         <v>0.9999946888526389</v>
       </c>
       <c r="T8">
-        <v>0.9999995412062468</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="U8">
-        <v>0.9999987691902845</v>
+        <v>0.9999987691902846</v>
       </c>
       <c r="V8">
         <v>1.000001217392872</v>
       </c>
       <c r="W8">
-        <v>0.9999989116885354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999989116885355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,34 +1082,34 @@
         <v>1.000016474179622</v>
       </c>
       <c r="D9">
-        <v>0.9999752892090208</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="E9">
+        <v>1.000009174078404</v>
+      </c>
+      <c r="F9">
+        <v>0.999994692375943</v>
+      </c>
+      <c r="G9">
         <v>1.000006176208383</v>
       </c>
-      <c r="F9">
-        <v>1.000016474179622</v>
-      </c>
-      <c r="G9">
-        <v>0.999994692375943</v>
-      </c>
       <c r="H9">
-        <v>1.000009174078404</v>
+        <v>0.9999839332695309</v>
       </c>
       <c r="I9">
-        <v>1.000016474179622</v>
+        <v>0.9999950552376545</v>
       </c>
       <c r="J9">
         <v>0.9999752892090208</v>
       </c>
       <c r="K9">
-        <v>0.9999950552376545</v>
+        <v>0.9999752892090208</v>
       </c>
       <c r="L9">
         <v>1.000006176208383</v>
       </c>
       <c r="M9">
-        <v>0.9999839332695309</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="N9">
         <v>1.000016474179622</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999983713458674</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>1.000034492081001</v>
       </c>
       <c r="D10">
-        <v>0.9999482637263473</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="E10">
+        <v>1.00001920506452</v>
+      </c>
+      <c r="F10">
+        <v>0.9999888852356863</v>
+      </c>
+      <c r="G10">
         <v>1.000012934706264</v>
       </c>
-      <c r="F10">
-        <v>1.000034492081001</v>
-      </c>
-      <c r="G10">
-        <v>0.9999888852356863</v>
-      </c>
       <c r="H10">
-        <v>1.00001920506452</v>
+        <v>0.9999663603326342</v>
       </c>
       <c r="I10">
-        <v>1.000034492081001</v>
+        <v>0.9999896498881794</v>
       </c>
       <c r="J10">
-        <v>0.9999482637263473</v>
+        <v>0.9999482637263475</v>
       </c>
       <c r="K10">
-        <v>0.9999896498881794</v>
+        <v>0.9999482637263475</v>
       </c>
       <c r="L10">
         <v>1.000012934706264</v>
       </c>
       <c r="M10">
-        <v>0.9999663603326341</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="N10">
         <v>1.000034492081001</v>
@@ -1237,22 +1189,22 @@
         <v>1.000012934706264</v>
       </c>
       <c r="P10">
-        <v>0.9999805992163054</v>
+        <v>0.9999805992163056</v>
       </c>
       <c r="Q10">
         <v>1.000000909970975</v>
       </c>
       <c r="R10">
-        <v>0.9999985635045373</v>
+        <v>0.9999985635045374</v>
       </c>
       <c r="S10">
         <v>0.9999833612227658</v>
       </c>
       <c r="T10">
-        <v>0.9999985635045373</v>
+        <v>0.9999985635045374</v>
       </c>
       <c r="U10">
-        <v>0.9999961439373245</v>
+        <v>0.9999961439373246</v>
       </c>
       <c r="V10">
         <v>1.00000381356606</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999965907176119</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>1.000060220505675</v>
       </c>
       <c r="D11">
-        <v>0.9999096680515047</v>
+        <v>1.000060220505675</v>
       </c>
       <c r="E11">
+        <v>1.000033530406344</v>
+      </c>
+      <c r="F11">
+        <v>0.999980593454932</v>
+      </c>
+      <c r="G11">
         <v>1.000022580899122</v>
       </c>
-      <c r="F11">
-        <v>1.000060220505675</v>
-      </c>
-      <c r="G11">
-        <v>0.999980593454932</v>
-      </c>
       <c r="H11">
-        <v>1.000033530406344</v>
+        <v>0.9999412687159043</v>
       </c>
       <c r="I11">
-        <v>1.000060220505675</v>
+        <v>0.99998193124024</v>
       </c>
       <c r="J11">
         <v>0.9999096680515047</v>
       </c>
       <c r="K11">
-        <v>0.99998193124024</v>
+        <v>0.9999096680515047</v>
       </c>
       <c r="L11">
         <v>1.000022580899122</v>
       </c>
       <c r="M11">
-        <v>0.9999412687159043</v>
+        <v>1.000060220505675</v>
       </c>
       <c r="N11">
         <v>1.000060220505675</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999940467716055</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>0.9993220795853563</v>
       </c>
       <c r="D12">
-        <v>1.001016882167312</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="E12">
+        <v>0.9996225383247518</v>
+      </c>
+      <c r="F12">
+        <v>1.000218505735974</v>
+      </c>
+      <c r="G12">
         <v>0.9997457773477155</v>
       </c>
-      <c r="F12">
-        <v>0.9993220795853563</v>
-      </c>
-      <c r="G12">
-        <v>1.000218505735974</v>
-      </c>
       <c r="H12">
-        <v>0.9996225383247518</v>
+        <v>1.000661187414454</v>
       </c>
       <c r="I12">
-        <v>0.9993220795853563</v>
+        <v>1.000203374201499</v>
       </c>
       <c r="J12">
         <v>1.001016882167312</v>
       </c>
       <c r="K12">
-        <v>1.000203374201499</v>
+        <v>1.001016882167312</v>
       </c>
       <c r="L12">
         <v>0.9997457773477155</v>
       </c>
       <c r="M12">
-        <v>1.000661187414454</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="N12">
         <v>0.9993220795853563</v>
@@ -1403,7 +1355,7 @@
         <v>1.000067015265597</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999824240915396</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="D13">
-        <v>1.000263642544818</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="E13">
+        <v>0.9999021391184588</v>
+      </c>
+      <c r="F13">
+        <v>1.000056652343239</v>
+      </c>
+      <c r="G13">
         <v>0.9999340925564953</v>
       </c>
-      <c r="F13">
-        <v>0.999824240915396</v>
-      </c>
-      <c r="G13">
-        <v>1.000056652343239</v>
-      </c>
       <c r="H13">
-        <v>0.9999021391184588</v>
+        <v>1.000171420936877</v>
       </c>
       <c r="I13">
-        <v>0.999824240915396</v>
+        <v>1.000052730265236</v>
       </c>
       <c r="J13">
         <v>1.000263642544818</v>
       </c>
       <c r="K13">
-        <v>1.000052730265236</v>
+        <v>1.000263642544818</v>
       </c>
       <c r="L13">
         <v>0.9999340925564953</v>
       </c>
       <c r="M13">
-        <v>1.000171420936877</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="N13">
-        <v>0.999824240915396</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="O13">
         <v>0.9999340925564953</v>
@@ -1468,13 +1420,13 @@
         <v>1.000019657089987</v>
       </c>
       <c r="V13">
-        <v>0.9999805738550689</v>
+        <v>0.9999805738550688</v>
       </c>
       <c r="W13">
         <v>1.000017376404627</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,34 +1437,34 @@
         <v>1.000037260527417</v>
       </c>
       <c r="D14">
-        <v>0.9999441150210705</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="E14">
+        <v>1.000020748293913</v>
+      </c>
+      <c r="F14">
+        <v>0.9999879931283011</v>
+      </c>
+      <c r="G14">
         <v>1.000013974688341</v>
       </c>
-      <c r="F14">
-        <v>1.000037260527417</v>
-      </c>
-      <c r="G14">
-        <v>0.9999879931283011</v>
-      </c>
       <c r="H14">
-        <v>1.000020748293913</v>
+        <v>0.9999636677832076</v>
       </c>
       <c r="I14">
-        <v>1.000037260527417</v>
+        <v>0.9999888180221413</v>
       </c>
       <c r="J14">
         <v>0.9999441150210705</v>
       </c>
       <c r="K14">
-        <v>0.9999888180221413</v>
+        <v>0.9999441150210705</v>
       </c>
       <c r="L14">
         <v>1.000013974688341</v>
       </c>
       <c r="M14">
-        <v>0.9999636677832076</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="N14">
         <v>1.000037260527417</v>
@@ -1545,7 +1497,7 @@
         <v>0.9999963190190915</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>1.000011102381931</v>
       </c>
       <c r="D15">
-        <v>0.9999833612875514</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="E15">
+        <v>1.000006180191563</v>
+      </c>
+      <c r="F15">
+        <v>0.9999964280481056</v>
+      </c>
+      <c r="G15">
         <v>1.000004163819755</v>
       </c>
-      <c r="F15">
-        <v>1.000011102381931</v>
-      </c>
-      <c r="G15">
-        <v>0.9999964280481056</v>
-      </c>
       <c r="H15">
-        <v>1.000006180191563</v>
+        <v>0.9999891809732728</v>
       </c>
       <c r="I15">
-        <v>1.000011102381931</v>
+        <v>0.9999966726646068</v>
       </c>
       <c r="J15">
         <v>0.9999833612875514</v>
       </c>
       <c r="K15">
-        <v>0.9999966726646068</v>
+        <v>0.9999833612875514</v>
       </c>
       <c r="L15">
         <v>1.000004163819755</v>
       </c>
       <c r="M15">
-        <v>0.9999891809732729</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="N15">
         <v>1.000011102381931</v>
@@ -1598,7 +1550,7 @@
         <v>1.00000029593393</v>
       </c>
       <c r="R15">
-        <v>0.9999995424964125</v>
+        <v>0.9999995424964124</v>
       </c>
       <c r="S15">
         <v>0.9999946510518041</v>
@@ -1616,7 +1568,7 @@
         <v>0.9999989066483177</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000184903475</v>
+        <v>1.000873189183406</v>
       </c>
       <c r="D16">
-        <v>0.9999997233669027</v>
+        <v>1.000873189183406</v>
       </c>
       <c r="E16">
-        <v>1.00000006849725</v>
+        <v>1.000486173973164</v>
       </c>
       <c r="F16">
-        <v>1.000000184903475</v>
+        <v>0.9997185624347266</v>
       </c>
       <c r="G16">
-        <v>0.9999999423455955</v>
+        <v>1.000327443274259</v>
       </c>
       <c r="H16">
-        <v>1.000000104626104</v>
+        <v>0.9991483679646779</v>
       </c>
       <c r="I16">
-        <v>1.000000184903475</v>
+        <v>0.9997380455539769</v>
       </c>
       <c r="J16">
-        <v>0.9999997233669027</v>
+        <v>0.9986902133870607</v>
       </c>
       <c r="K16">
-        <v>0.9999999423365631</v>
+        <v>0.9986902133870607</v>
       </c>
       <c r="L16">
-        <v>1.00000006849725</v>
+        <v>1.000327443274259</v>
       </c>
       <c r="M16">
-        <v>0.9999998202659245</v>
+        <v>1.000873189183406</v>
       </c>
       <c r="N16">
-        <v>1.000000184903475</v>
+        <v>1.000873189183406</v>
       </c>
       <c r="O16">
-        <v>1.00000006849725</v>
+        <v>1.000327443274259</v>
       </c>
       <c r="P16">
-        <v>0.9999998959320763</v>
+        <v>0.9995088283306599</v>
       </c>
       <c r="Q16">
-        <v>1.000000005421423</v>
+        <v>1.000023002854493</v>
       </c>
       <c r="R16">
-        <v>0.999999992255876</v>
+        <v>0.9999636152815752</v>
       </c>
       <c r="S16">
-        <v>0.9999999114032493</v>
+        <v>0.9995787396986821</v>
       </c>
       <c r="T16">
-        <v>0.999999992255876</v>
+        <v>0.9999636152815752</v>
       </c>
       <c r="U16">
-        <v>0.9999999797783059</v>
+        <v>0.999902352069863</v>
       </c>
       <c r="V16">
-        <v>1.00000002080334</v>
+        <v>1.000096519492572</v>
       </c>
       <c r="W16">
-        <v>0.9999999818548833</v>
+        <v>0.9999136798806912</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003913348432</v>
+        <v>1.000715680004216</v>
       </c>
       <c r="D17">
-        <v>0.9999941305977281</v>
+        <v>1.000715680004216</v>
       </c>
       <c r="E17">
-        <v>1.000001467438052</v>
+        <v>1.000398477777481</v>
       </c>
       <c r="F17">
-        <v>1.000003913348432</v>
+        <v>0.9997693291197938</v>
       </c>
       <c r="G17">
-        <v>0.9999987407654194</v>
+        <v>1.00026837848213</v>
       </c>
       <c r="H17">
-        <v>1.000002180887901</v>
+        <v>0.9993019889006395</v>
       </c>
       <c r="I17">
-        <v>1.000003913348432</v>
+        <v>0.9997852969446351</v>
       </c>
       <c r="J17">
-        <v>0.9999941305977281</v>
+        <v>0.9989264778976606</v>
       </c>
       <c r="K17">
-        <v>0.9999988239842329</v>
+        <v>0.9989264778976606</v>
       </c>
       <c r="L17">
-        <v>1.000001467438052</v>
+        <v>1.00026837848213</v>
       </c>
       <c r="M17">
-        <v>0.9999961837576067</v>
+        <v>1.000715680004216</v>
       </c>
       <c r="N17">
-        <v>1.000003913348432</v>
+        <v>1.000715680004216</v>
       </c>
       <c r="O17">
-        <v>1.000001467438052</v>
+        <v>1.00026837848213</v>
       </c>
       <c r="P17">
-        <v>0.9999977990178901</v>
+        <v>0.9995974281898954</v>
       </c>
       <c r="Q17">
-        <v>1.000000104101736</v>
+        <v>1.000018853800962</v>
       </c>
       <c r="R17">
-        <v>0.9999998371280707</v>
+        <v>0.9999701787946688</v>
       </c>
       <c r="S17">
-        <v>0.9999981129337332</v>
+        <v>0.9996547284998615</v>
       </c>
       <c r="T17">
-        <v>0.9999998371280707</v>
+        <v>0.9999701787946688</v>
       </c>
       <c r="U17">
-        <v>0.9999995630374079</v>
+        <v>0.99991996637595</v>
       </c>
       <c r="V17">
-        <v>1.000000433099613</v>
+        <v>1.000079109101603</v>
       </c>
       <c r="W17">
-        <v>0.9999996135271779</v>
+        <v>0.9999292509510855</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013777383224</v>
+        <v>1.000401151058756</v>
       </c>
       <c r="D18">
-        <v>0.9999793338119747</v>
+        <v>1.000401151058756</v>
       </c>
       <c r="E18">
-        <v>1.000005166281609</v>
+        <v>1.000223359350424</v>
       </c>
       <c r="F18">
-        <v>1.000013777383224</v>
+        <v>0.9998707046434354</v>
       </c>
       <c r="G18">
-        <v>0.9999955617224306</v>
+        <v>1.000150434547585</v>
       </c>
       <c r="H18">
-        <v>1.000007674014265</v>
+        <v>0.9996087539421453</v>
       </c>
       <c r="I18">
-        <v>1.000013777383224</v>
+        <v>0.9998796540452398</v>
       </c>
       <c r="J18">
-        <v>0.9999793338119747</v>
+        <v>0.9993982727003931</v>
       </c>
       <c r="K18">
-        <v>0.9999958648025803</v>
+        <v>0.9993982727003931</v>
       </c>
       <c r="L18">
-        <v>1.000005166281609</v>
+        <v>1.000150434547585</v>
       </c>
       <c r="M18">
-        <v>0.9999865604900799</v>
+        <v>1.000401151058756</v>
       </c>
       <c r="N18">
-        <v>1.000013777383224</v>
+        <v>1.000401151058756</v>
       </c>
       <c r="O18">
-        <v>1.000005166281609</v>
+        <v>1.000150434547585</v>
       </c>
       <c r="P18">
-        <v>0.9999922500467919</v>
+        <v>0.9997743536239891</v>
       </c>
       <c r="Q18">
-        <v>1.00000036400202</v>
+        <v>1.00001056959551</v>
       </c>
       <c r="R18">
-        <v>0.9999994258256028</v>
+        <v>0.9999832861022447</v>
       </c>
       <c r="S18">
-        <v>0.9999933539386715</v>
+        <v>0.9998064706304713</v>
       </c>
       <c r="T18">
-        <v>0.9999994258256028</v>
+        <v>0.9999832861022447</v>
       </c>
       <c r="U18">
-        <v>0.9999984597998097</v>
+        <v>0.9999551407375424</v>
       </c>
       <c r="V18">
-        <v>1.000001523316493</v>
+        <v>1.000044342801785</v>
       </c>
       <c r="W18">
-        <v>0.9999986380984716</v>
+        <v>0.9999603456044455</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="D19">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="E19">
+        <v>1.000244314617433</v>
+      </c>
+      <c r="F19">
+        <v>0.9998585754366865</v>
+      </c>
+      <c r="G19">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="H19">
+        <v>0.9995720408817155</v>
+      </c>
+      <c r="I19">
+        <v>0.9998683584325884</v>
+      </c>
+      <c r="J19">
+        <v>0.9993418079705698</v>
+      </c>
+      <c r="K19">
+        <v>0.9993418079705698</v>
+      </c>
+      <c r="L19">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="M19">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="N19">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="O19">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="P19">
+        <v>0.9997531803605842</v>
+      </c>
+      <c r="Q19">
+        <v>1.000011564093643</v>
+      </c>
+      <c r="R19">
+        <v>0.9999817179074179</v>
+      </c>
+      <c r="S19">
+        <v>0.9997883120526184</v>
+      </c>
+      <c r="T19">
+        <v>0.9999817179074179</v>
+      </c>
+      <c r="U19">
+        <v>0.999950932289735</v>
+      </c>
+      <c r="V19">
+        <v>1.000048504432005</v>
+      </c>
+      <c r="W19">
+        <v>0.9999566244801595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="D20">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="E20">
+        <v>1.000000104626104</v>
+      </c>
+      <c r="F20">
+        <v>0.9999999423455955</v>
+      </c>
+      <c r="G20">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998202659246</v>
+      </c>
+      <c r="I20">
+        <v>0.9999999423365631</v>
+      </c>
+      <c r="J20">
+        <v>0.9999997233669029</v>
+      </c>
+      <c r="K20">
+        <v>0.9999997233669029</v>
+      </c>
+      <c r="L20">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="M20">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="N20">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="O20">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998959320767</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000005421423</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999922558764</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999114032496</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999922558764</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999797783062</v>
+      </c>
+      <c r="V20">
+        <v>1.00000002080334</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999818548834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="D21">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="E21">
+        <v>1.000002180887901</v>
+      </c>
+      <c r="F21">
+        <v>0.9999987407654194</v>
+      </c>
+      <c r="G21">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="H21">
+        <v>0.9999961837576067</v>
+      </c>
+      <c r="I21">
+        <v>0.9999988239842331</v>
+      </c>
+      <c r="J21">
+        <v>0.9999941305977275</v>
+      </c>
+      <c r="K21">
+        <v>0.9999941305977275</v>
+      </c>
+      <c r="L21">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="M21">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="N21">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="O21">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="P21">
+        <v>0.9999977990178899</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000104101736</v>
+      </c>
+      <c r="R21">
+        <v>0.9999998371280704</v>
+      </c>
+      <c r="S21">
+        <v>0.9999981129337331</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998371280704</v>
+      </c>
+      <c r="U21">
+        <v>0.9999995630374077</v>
+      </c>
+      <c r="V21">
+        <v>1.000000433099613</v>
+      </c>
+      <c r="W21">
+        <v>0.9999996135271779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="D22">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="E22">
+        <v>1.000007674014265</v>
+      </c>
+      <c r="F22">
+        <v>0.9999955617224306</v>
+      </c>
+      <c r="G22">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="H22">
+        <v>0.9999865604900799</v>
+      </c>
+      <c r="I22">
+        <v>0.9999958648025803</v>
+      </c>
+      <c r="J22">
+        <v>0.9999793338119747</v>
+      </c>
+      <c r="K22">
+        <v>0.9999793338119747</v>
+      </c>
+      <c r="L22">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="M22">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="N22">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="O22">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="P22">
+        <v>0.999992250046792</v>
+      </c>
+      <c r="Q22">
+        <v>1.00000036400202</v>
+      </c>
+      <c r="R22">
+        <v>0.9999994258256028</v>
+      </c>
+      <c r="S22">
+        <v>0.9999933539386716</v>
+      </c>
+      <c r="T22">
+        <v>0.9999994258256028</v>
+      </c>
+      <c r="U22">
+        <v>0.9999984597998097</v>
+      </c>
+      <c r="V22">
+        <v>1.000001523316493</v>
+      </c>
+      <c r="W22">
+        <v>0.9999986380984717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000032278015548</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000032278015548</v>
+      </c>
+      <c r="E23">
+        <v>1.000017967625014</v>
+      </c>
+      <c r="F23">
+        <v>0.9999896006000847</v>
+      </c>
+      <c r="G23">
+        <v>1.000012103946693</v>
+      </c>
+      <c r="H23">
+        <v>0.9999685157373238</v>
+      </c>
+      <c r="I23">
+        <v>0.9999903110402357</v>
+      </c>
+      <c r="J23">
         <v>0.9999515809143371</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>0.9999515809143371</v>
+      </c>
+      <c r="L23">
         <v>1.000012103946693</v>
       </c>
-      <c r="F19">
+      <c r="M23">
         <v>1.000032278015548</v>
       </c>
-      <c r="G19">
-        <v>0.9999896006000847</v>
-      </c>
-      <c r="H19">
-        <v>1.000017967625014</v>
-      </c>
-      <c r="I19">
+      <c r="N23">
         <v>1.000032278015548</v>
       </c>
-      <c r="J19">
-        <v>0.9999515809143371</v>
-      </c>
-      <c r="K19">
-        <v>0.9999903110402357</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>1.000012103946693</v>
       </c>
-      <c r="M19">
-        <v>0.9999685157373238</v>
-      </c>
-      <c r="N19">
-        <v>1.000032278015548</v>
-      </c>
-      <c r="O19">
-        <v>1.000012103946693</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999981842430515</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000000852273389</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999986542921926</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999844284870383</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999986542921926</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999963908691656</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000003568298442</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999968077282411</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000044749049879</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="D3">
-        <v>1.000044749049879</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="E3">
-        <v>1.000024917127633</v>
+        <v>1.000271358638332</v>
       </c>
       <c r="F3">
-        <v>0.9999855787532563</v>
+        <v>0.9998429180979845</v>
       </c>
       <c r="G3">
-        <v>1.000016780317758</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="H3">
-        <v>0.9999563557678227</v>
+        <v>0.999524672492796</v>
       </c>
       <c r="I3">
-        <v>0.999986573190206</v>
+        <v>0.9998537901729109</v>
       </c>
       <c r="J3">
-        <v>0.9999328765777147</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="K3">
-        <v>0.9999328765777147</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="L3">
-        <v>1.000016780317758</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="M3">
-        <v>1.000044749049879</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="N3">
-        <v>1.000044749049879</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="O3">
-        <v>1.000016780317758</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="P3">
-        <v>0.9999748284477361</v>
+        <v>0.999725859632565</v>
       </c>
       <c r="Q3">
-        <v>1.000001179535507</v>
+        <v>1.000012839481269</v>
       </c>
       <c r="R3">
-        <v>0.9999981353151172</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="S3">
-        <v>0.9999784118829096</v>
+        <v>0.9997648791210382</v>
       </c>
       <c r="T3">
-        <v>0.9999981353151172</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="U3">
-        <v>0.9999949961746519</v>
+        <v>0.9999454993137608</v>
       </c>
       <c r="V3">
-        <v>1.000004946749697</v>
+        <v>1.000053871429394</v>
       </c>
       <c r="W3">
-        <v>0.9999955763877534</v>
+        <v>0.9999518224279543</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000086387327034</v>
+        <v>1.000437985818116</v>
       </c>
       <c r="D4">
-        <v>1.000086387327034</v>
+        <v>1.000437985818116</v>
       </c>
       <c r="E4">
-        <v>1.000048100206401</v>
+        <v>1.000243867323895</v>
       </c>
       <c r="F4">
-        <v>0.9999721583898542</v>
+        <v>0.9998588322391024</v>
       </c>
       <c r="G4">
-        <v>1.000032394807686</v>
+        <v>1.000164245536714</v>
       </c>
       <c r="H4">
-        <v>0.9999157450960973</v>
+        <v>0.999572827873651</v>
       </c>
       <c r="I4">
-        <v>0.9999740819035061</v>
+        <v>0.9998686024366372</v>
       </c>
       <c r="J4">
-        <v>0.9998704173582805</v>
+        <v>0.9993430201649254</v>
       </c>
       <c r="K4">
-        <v>0.9998704173582805</v>
+        <v>0.9993430201649254</v>
       </c>
       <c r="L4">
-        <v>1.000032394807686</v>
+        <v>1.000164245536714</v>
       </c>
       <c r="M4">
-        <v>1.000086387327034</v>
+        <v>1.000437985818116</v>
       </c>
       <c r="N4">
-        <v>1.000086387327034</v>
+        <v>1.000437985818116</v>
       </c>
       <c r="O4">
-        <v>1.000032394807686</v>
+        <v>1.000164245536714</v>
       </c>
       <c r="P4">
-        <v>0.9999514060829833</v>
+        <v>0.9997536328508195</v>
       </c>
       <c r="Q4">
-        <v>1.00000227659877</v>
+        <v>1.000011538887908</v>
       </c>
       <c r="R4">
-        <v>0.9999963998310001</v>
+        <v>0.999981750506585</v>
       </c>
       <c r="S4">
-        <v>0.9999583235186069</v>
+        <v>0.9997886993135805</v>
       </c>
       <c r="T4">
-        <v>0.9999963998310001</v>
+        <v>0.999981750506585</v>
       </c>
       <c r="U4">
-        <v>0.9999903394707136</v>
+        <v>0.9999510209397144</v>
       </c>
       <c r="V4">
-        <v>1.000009549041978</v>
+        <v>1.000048413915395</v>
       </c>
       <c r="W4">
-        <v>0.9999914599870681</v>
+        <v>0.9999567033662193</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000165550748697</v>
+        <v>1.000582269002694</v>
       </c>
       <c r="D5">
-        <v>1.000165550748697</v>
+        <v>1.000582269002694</v>
       </c>
       <c r="E5">
-        <v>1.000092172566503</v>
+        <v>1.000324206495957</v>
       </c>
       <c r="F5">
-        <v>0.9999466435176133</v>
+        <v>0.9998123261994616</v>
       </c>
       <c r="G5">
-        <v>1.000062082567932</v>
+        <v>1.000218354204851</v>
       </c>
       <c r="H5">
-        <v>0.9998385332142097</v>
+        <v>0.9994321057412419</v>
       </c>
       <c r="I5">
-        <v>0.9999503300970641</v>
+        <v>0.9998253161185967</v>
       </c>
       <c r="J5">
-        <v>0.9997516678755942</v>
+        <v>0.9991265886792443</v>
       </c>
       <c r="K5">
-        <v>0.9997516678755942</v>
+        <v>0.9991265886792443</v>
       </c>
       <c r="L5">
-        <v>1.000062082567932</v>
+        <v>1.000218354204851</v>
       </c>
       <c r="M5">
-        <v>1.000165550748697</v>
+        <v>1.000582269002694</v>
       </c>
       <c r="N5">
-        <v>1.000165550748697</v>
+        <v>1.000582269002694</v>
       </c>
       <c r="O5">
-        <v>1.000062082567932</v>
+        <v>1.000218354204851</v>
       </c>
       <c r="P5">
-        <v>0.9999068752217632</v>
+        <v>0.9996724714420477</v>
       </c>
       <c r="Q5">
-        <v>1.000004363042773</v>
+        <v>1.000015340202157</v>
       </c>
       <c r="R5">
-        <v>0.9999931003974077</v>
+        <v>0.9999757372955966</v>
       </c>
       <c r="S5">
-        <v>0.9999201313203799</v>
+        <v>0.9997190896945191</v>
       </c>
       <c r="T5">
-        <v>0.9999931003974077</v>
+        <v>0.9999757372955967</v>
       </c>
       <c r="U5">
-        <v>0.9999814861774592</v>
+        <v>0.999934884521563</v>
       </c>
       <c r="V5">
-        <v>1.000018299091707</v>
+        <v>1.000064361417789</v>
       </c>
       <c r="W5">
-        <v>0.9999836328944433</v>
+        <v>0.9999424400808623</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000242805985243</v>
+        <v>1.000672247272728</v>
       </c>
       <c r="D6">
-        <v>1.000242805985243</v>
+        <v>1.000672247272728</v>
       </c>
       <c r="E6">
-        <v>1.000135193920335</v>
+        <v>1.000374304090909</v>
       </c>
       <c r="F6">
-        <v>0.9999217445469987</v>
+        <v>0.9997833264204542</v>
       </c>
       <c r="G6">
-        <v>1.000091054304642</v>
+        <v>1.000252096306819</v>
       </c>
       <c r="H6">
-        <v>0.9997631822151327</v>
+        <v>0.9993443442045458</v>
       </c>
       <c r="I6">
-        <v>0.999927158184032</v>
+        <v>0.9997983205681816</v>
       </c>
       <c r="J6">
-        <v>0.999635776492207</v>
+        <v>0.998991624318182</v>
       </c>
       <c r="K6">
-        <v>0.999635776492207</v>
+        <v>0.998991624318182</v>
       </c>
       <c r="L6">
-        <v>1.000091054304642</v>
+        <v>1.000252096306819</v>
       </c>
       <c r="M6">
-        <v>1.000242805985243</v>
+        <v>1.000672247272728</v>
       </c>
       <c r="N6">
-        <v>1.000242805985243</v>
+        <v>1.000672247272728</v>
       </c>
       <c r="O6">
-        <v>1.000091054304642</v>
+        <v>1.000252096306819</v>
       </c>
       <c r="P6">
-        <v>0.9998634153984245</v>
+        <v>0.9996218603125003</v>
       </c>
       <c r="Q6">
-        <v>1.00000639942582</v>
+        <v>1.000017711363636</v>
       </c>
       <c r="R6">
-        <v>0.999989878927364</v>
+        <v>0.9999719892992429</v>
       </c>
       <c r="S6">
-        <v>0.9998828584479492</v>
+        <v>0.999675682348485</v>
       </c>
       <c r="T6">
-        <v>0.999989878927364</v>
+        <v>0.9999719892992429</v>
       </c>
       <c r="U6">
-        <v>0.9999728453322727</v>
+        <v>0.9999248235795457</v>
       </c>
       <c r="V6">
-        <v>1.000026837462867</v>
+        <v>1.000074308318182</v>
       </c>
       <c r="W6">
-        <v>0.9999759962441541</v>
+        <v>0.9999335449360798</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003763201912</v>
+        <v>1.00171329758664</v>
       </c>
       <c r="D7">
-        <v>1.000003763201912</v>
+        <v>1.00171329758664</v>
       </c>
       <c r="E7">
-        <v>1.000002097075331</v>
+        <v>1.000953929848568</v>
       </c>
       <c r="F7">
-        <v>0.9999987889397211</v>
+        <v>0.9994477815518172</v>
       </c>
       <c r="G7">
-        <v>1.000001410230164</v>
+        <v>1.000642479968102</v>
       </c>
       <c r="H7">
-        <v>0.9999963300318389</v>
+        <v>0.9983290152300142</v>
       </c>
       <c r="I7">
-        <v>0.9999988688745989</v>
+        <v>0.9994860087313104</v>
       </c>
       <c r="J7">
-        <v>0.9999943557769397</v>
+        <v>0.9974300620138793</v>
       </c>
       <c r="K7">
-        <v>0.9999943557769397</v>
+        <v>0.9974300620138793</v>
       </c>
       <c r="L7">
-        <v>1.000001410230164</v>
+        <v>1.000642479968102</v>
       </c>
       <c r="M7">
-        <v>1.000003763201912</v>
+        <v>1.00171329758664</v>
       </c>
       <c r="N7">
-        <v>1.000003763201912</v>
+        <v>1.00171329758664</v>
       </c>
       <c r="O7">
-        <v>1.000001410230164</v>
+        <v>1.000642479968102</v>
       </c>
       <c r="P7">
-        <v>0.9999978830035517</v>
+        <v>0.9990362709909908</v>
       </c>
       <c r="Q7">
-        <v>1.000000099584943</v>
+        <v>1.00004513075996</v>
       </c>
       <c r="R7">
-        <v>0.999999843069672</v>
+        <v>0.9999286131895406</v>
       </c>
       <c r="S7">
-        <v>0.9999981849822749</v>
+        <v>0.9991734411779328</v>
       </c>
       <c r="T7">
-        <v>0.999999843069672</v>
+        <v>0.9999286131895406</v>
       </c>
       <c r="U7">
-        <v>0.9999995795371843</v>
+        <v>0.9998084052801097</v>
       </c>
       <c r="V7">
-        <v>1.00000041627013</v>
+        <v>1.000189383741416</v>
       </c>
       <c r="W7">
-        <v>0.9999996280450837</v>
+        <v>0.9998306318623043</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000011010203222</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="D8">
-        <v>1.000011010203222</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="E8">
-        <v>1.000006132110835</v>
+        <v>1.000959652468665</v>
       </c>
       <c r="F8">
-        <v>0.9999964531423976</v>
+        <v>0.9994444689647526</v>
       </c>
       <c r="G8">
-        <v>1.000004127906525</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="H8">
-        <v>0.9999892620442824</v>
+        <v>0.998318991495254</v>
       </c>
       <c r="I8">
-        <v>0.9999966946855027</v>
+        <v>0.9994829255162048</v>
       </c>
       <c r="J8">
-        <v>0.9999834855089936</v>
+        <v>0.9974146457715826</v>
       </c>
       <c r="K8">
-        <v>0.9999834855089936</v>
+        <v>0.9974146457715826</v>
       </c>
       <c r="L8">
-        <v>1.000004127906525</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="M8">
-        <v>1.000011010203222</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="N8">
-        <v>1.000011010203222</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="O8">
-        <v>1.000004127906525</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="P8">
-        <v>0.9999938067077594</v>
+        <v>0.9990304899045368</v>
       </c>
       <c r="Q8">
-        <v>1.000000290524461</v>
+        <v>1.000045401501122</v>
       </c>
       <c r="R8">
-        <v>0.9999995412062469</v>
+        <v>0.9999281849420939</v>
       </c>
       <c r="S8">
-        <v>0.9999946888526389</v>
+        <v>0.9991684829246088</v>
       </c>
       <c r="T8">
-        <v>0.9999995412062469</v>
+        <v>0.9999281849420941</v>
       </c>
       <c r="U8">
-        <v>0.9999987691902846</v>
+        <v>0.9998072559477587</v>
       </c>
       <c r="V8">
-        <v>1.000001217392872</v>
+        <v>1.000190519761649</v>
       </c>
       <c r="W8">
-        <v>0.9999989116885355</v>
+        <v>0.9998296159135811</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000016474179622</v>
+        <v>1.001729846318837</v>
       </c>
       <c r="D9">
-        <v>1.000016474179622</v>
+        <v>1.001729846318837</v>
       </c>
       <c r="E9">
-        <v>1.000009174078404</v>
+        <v>1.000963144543046</v>
       </c>
       <c r="F9">
-        <v>0.999994692375943</v>
+        <v>0.9994424475769261</v>
       </c>
       <c r="G9">
-        <v>1.000006176208383</v>
+        <v>1.000648685828397</v>
       </c>
       <c r="H9">
-        <v>0.9999839332695309</v>
+        <v>0.9983128748925214</v>
       </c>
       <c r="I9">
-        <v>0.9999950552376545</v>
+        <v>0.9994810440992677</v>
       </c>
       <c r="J9">
-        <v>0.9999752892090208</v>
+        <v>0.9974052385992356</v>
       </c>
       <c r="K9">
-        <v>0.9999752892090208</v>
+        <v>0.9974052385992356</v>
       </c>
       <c r="L9">
-        <v>1.000006176208383</v>
+        <v>1.000648685828397</v>
       </c>
       <c r="M9">
-        <v>1.000016474179622</v>
+        <v>1.001729846318837</v>
       </c>
       <c r="N9">
-        <v>1.000016474179622</v>
+        <v>1.001729846318837</v>
       </c>
       <c r="O9">
-        <v>1.000006176208383</v>
+        <v>1.000648685828397</v>
       </c>
       <c r="P9">
-        <v>0.9999907327087016</v>
+        <v>0.9990269622138165</v>
       </c>
       <c r="Q9">
-        <v>1.000000434292163</v>
+        <v>1.000045566702662</v>
       </c>
       <c r="R9">
-        <v>0.9999993131990083</v>
+        <v>0.9999279235821567</v>
       </c>
       <c r="S9">
-        <v>0.999992052597782</v>
+        <v>0.9991654573348531</v>
       </c>
       <c r="T9">
-        <v>0.9999993131990083</v>
+        <v>0.9999279235821567</v>
       </c>
       <c r="U9">
-        <v>0.9999981579932419</v>
+        <v>0.999806554580849</v>
       </c>
       <c r="V9">
-        <v>1.000001821230518</v>
+        <v>1.000191212928447</v>
       </c>
       <c r="W9">
-        <v>0.9999983713458674</v>
+        <v>0.9998289959608286</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000034492081001</v>
+        <v>1.001767548960215</v>
       </c>
       <c r="D10">
-        <v>1.000034492081001</v>
+        <v>1.001767548960215</v>
       </c>
       <c r="E10">
-        <v>1.00001920506452</v>
+        <v>1.000984137934697</v>
       </c>
       <c r="F10">
-        <v>0.9999888852356863</v>
+        <v>0.9994302953295566</v>
       </c>
       <c r="G10">
-        <v>1.000012934706264</v>
+        <v>1.000662824108993</v>
       </c>
       <c r="H10">
-        <v>0.9999663603326342</v>
+        <v>0.9982761026916817</v>
       </c>
       <c r="I10">
-        <v>0.9999896498881794</v>
+        <v>0.9994697332591786</v>
       </c>
       <c r="J10">
-        <v>0.9999482637263475</v>
+        <v>0.9973486839362057</v>
       </c>
       <c r="K10">
-        <v>0.9999482637263475</v>
+        <v>0.9973486839362057</v>
       </c>
       <c r="L10">
-        <v>1.000012934706264</v>
+        <v>1.000662824108993</v>
       </c>
       <c r="M10">
-        <v>1.000034492081001</v>
+        <v>1.001767548960215</v>
       </c>
       <c r="N10">
-        <v>1.000034492081001</v>
+        <v>1.001767548960215</v>
       </c>
       <c r="O10">
-        <v>1.000012934706264</v>
+        <v>1.000662824108993</v>
       </c>
       <c r="P10">
-        <v>0.9999805992163056</v>
+        <v>0.9990057540225996</v>
       </c>
       <c r="Q10">
-        <v>1.000000909970975</v>
+        <v>1.000046559719275</v>
       </c>
       <c r="R10">
-        <v>0.9999985635045374</v>
+        <v>0.9999263523351382</v>
       </c>
       <c r="S10">
-        <v>0.9999833612227658</v>
+        <v>0.9991472677915852</v>
       </c>
       <c r="T10">
-        <v>0.9999985635045374</v>
+        <v>0.9999263523351379</v>
       </c>
       <c r="U10">
-        <v>0.9999961439373246</v>
+        <v>0.9998023380837426</v>
       </c>
       <c r="V10">
-        <v>1.00000381356606</v>
+        <v>1.000195380259037</v>
       </c>
       <c r="W10">
-        <v>0.9999965907176119</v>
+        <v>0.9998252687911903</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000060220505675</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="D11">
-        <v>1.000060220505675</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="E11">
-        <v>1.000033530406344</v>
+        <v>1.000030311243921</v>
       </c>
       <c r="F11">
-        <v>0.999980593454932</v>
+        <v>0.9999824566466365</v>
       </c>
       <c r="G11">
-        <v>1.000022580899122</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="H11">
-        <v>0.9999412687159043</v>
+        <v>0.9999469075248583</v>
       </c>
       <c r="I11">
-        <v>0.99998193124024</v>
+        <v>0.9999836665467412</v>
       </c>
       <c r="J11">
-        <v>0.9999096680515047</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="K11">
-        <v>0.9999096680515047</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="L11">
-        <v>1.000022580899122</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="M11">
-        <v>1.000060220505675</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="N11">
-        <v>1.000060220505675</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="O11">
-        <v>1.000022580899122</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="P11">
-        <v>0.9999661244753132</v>
+        <v>0.9999693789438919</v>
       </c>
       <c r="Q11">
-        <v>1.000001587177027</v>
+        <v>1.000001434915856</v>
       </c>
       <c r="R11">
-        <v>0.9999974898187673</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="S11">
-        <v>0.9999709474685194</v>
+        <v>0.9999737381781402</v>
       </c>
       <c r="T11">
-        <v>0.9999974898187673</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="U11">
-        <v>0.9999932657278086</v>
+        <v>0.9999939130780939</v>
       </c>
       <c r="V11">
-        <v>1.000006656683382</v>
+        <v>1.000006018018066</v>
       </c>
       <c r="W11">
-        <v>0.9999940467716055</v>
+        <v>0.9999946188516216</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993220795853563</v>
+        <v>1.000031675149907</v>
       </c>
       <c r="D12">
-        <v>0.9993220795853563</v>
+        <v>1.000031675149907</v>
       </c>
       <c r="E12">
-        <v>0.9996225383247518</v>
+        <v>1.000017637582968</v>
       </c>
       <c r="F12">
-        <v>1.000218505735974</v>
+        <v>0.9999897927061088</v>
       </c>
       <c r="G12">
-        <v>0.9997457773477155</v>
+        <v>1.0000118770673</v>
       </c>
       <c r="H12">
-        <v>1.000661187414454</v>
+        <v>0.9999691074722058</v>
       </c>
       <c r="I12">
-        <v>1.000203374201499</v>
+        <v>0.9999904954311274</v>
       </c>
       <c r="J12">
-        <v>1.001016882167312</v>
+        <v>0.9999524881177261</v>
       </c>
       <c r="K12">
-        <v>1.001016882167312</v>
+        <v>0.9999524881177261</v>
       </c>
       <c r="L12">
-        <v>0.9997457773477155</v>
+        <v>1.0000118770673</v>
       </c>
       <c r="M12">
-        <v>0.9993220795853563</v>
+        <v>1.000031675149907</v>
       </c>
       <c r="N12">
-        <v>0.9993220795853563</v>
+        <v>1.000031675149907</v>
       </c>
       <c r="O12">
-        <v>0.9997457773477155</v>
+        <v>1.0000118770673</v>
       </c>
       <c r="P12">
-        <v>1.000381329757513</v>
+        <v>0.9999821825925128</v>
       </c>
       <c r="Q12">
-        <v>0.9999821415418446</v>
+        <v>1.000000834886704</v>
       </c>
       <c r="R12">
-        <v>1.000028246366794</v>
+        <v>0.9999986801116442</v>
       </c>
       <c r="S12">
-        <v>1.000327055083667</v>
+        <v>0.9999847192970449</v>
       </c>
       <c r="T12">
-        <v>1.000028246366794</v>
+        <v>0.9999986801116444</v>
       </c>
       <c r="U12">
-        <v>1.000075811209089</v>
+        <v>0.9999964582602605</v>
       </c>
       <c r="V12">
-        <v>0.9999250648843427</v>
+        <v>1.00000350163819</v>
       </c>
       <c r="W12">
-        <v>1.000067015265597</v>
+        <v>0.9999968688243303</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998242409153959</v>
+        <v>1.000114740603463</v>
       </c>
       <c r="D13">
-        <v>0.9998242409153959</v>
+        <v>1.000114740603463</v>
       </c>
       <c r="E13">
-        <v>0.9999021391184588</v>
+        <v>1.000063885842108</v>
       </c>
       <c r="F13">
-        <v>1.000056652343239</v>
+        <v>0.9999630201699147</v>
       </c>
       <c r="G13">
-        <v>0.9999340925564953</v>
+        <v>1.000043027917563</v>
       </c>
       <c r="H13">
-        <v>1.000171420936877</v>
+        <v>0.9998880931001916</v>
       </c>
       <c r="I13">
-        <v>1.000052730265236</v>
+        <v>0.9999655764339467</v>
       </c>
       <c r="J13">
-        <v>1.000263642544818</v>
+        <v>0.9998278861984877</v>
       </c>
       <c r="K13">
-        <v>1.000263642544818</v>
+        <v>0.9998278861984877</v>
       </c>
       <c r="L13">
-        <v>0.9999340925564953</v>
+        <v>1.000043027917563</v>
       </c>
       <c r="M13">
-        <v>0.9998242409153959</v>
+        <v>1.000114740603463</v>
       </c>
       <c r="N13">
-        <v>0.9998242409153959</v>
+        <v>1.000114740603463</v>
       </c>
       <c r="O13">
-        <v>0.9999340925564953</v>
+        <v>1.000043027917563</v>
       </c>
       <c r="P13">
-        <v>1.000098867550657</v>
+        <v>0.9999354570580256</v>
       </c>
       <c r="Q13">
-        <v>0.9999953724498674</v>
+        <v>1.000003024043739</v>
       </c>
       <c r="R13">
-        <v>1.000007325338903</v>
+        <v>0.9999952182398379</v>
       </c>
       <c r="S13">
-        <v>1.000084795814851</v>
+        <v>0.9999446447619885</v>
       </c>
       <c r="T13">
-        <v>1.000007325338903</v>
+        <v>0.9999952182398379</v>
       </c>
       <c r="U13">
-        <v>1.000019657089987</v>
+        <v>0.9999871687223572</v>
       </c>
       <c r="V13">
-        <v>0.9999805738550688</v>
+        <v>1.000012683098578</v>
       </c>
       <c r="W13">
-        <v>1.000017376404627</v>
+        <v>0.9999886572729048</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000037260527417</v>
+        <v>1.000125352589443</v>
       </c>
       <c r="D14">
-        <v>1.000037260527417</v>
+        <v>1.000125352589443</v>
       </c>
       <c r="E14">
-        <v>1.000020748293913</v>
+        <v>1.000069792750274</v>
       </c>
       <c r="F14">
-        <v>0.9999879931283011</v>
+        <v>0.999959600691556</v>
       </c>
       <c r="G14">
-        <v>1.000013974688341</v>
+        <v>1.000047008200479</v>
       </c>
       <c r="H14">
-        <v>0.9999636677832076</v>
+        <v>0.9998777409795252</v>
       </c>
       <c r="I14">
-        <v>0.9999888180221413</v>
+        <v>0.9999623913801255</v>
       </c>
       <c r="J14">
-        <v>0.9999441150210705</v>
+        <v>0.999811973844011</v>
       </c>
       <c r="K14">
-        <v>0.9999441150210705</v>
+        <v>0.999811973844011</v>
       </c>
       <c r="L14">
-        <v>1.000013974688341</v>
+        <v>1.000047008200479</v>
       </c>
       <c r="M14">
-        <v>1.000037260527417</v>
+        <v>1.000125352589443</v>
       </c>
       <c r="N14">
-        <v>1.000037260527417</v>
+        <v>1.000125352589443</v>
       </c>
       <c r="O14">
-        <v>1.000013974688341</v>
+        <v>1.000047008200479</v>
       </c>
       <c r="P14">
-        <v>0.9999790448547057</v>
+        <v>0.999929491022245</v>
       </c>
       <c r="Q14">
-        <v>1.000000983908321</v>
+        <v>1.000003304446017</v>
       </c>
       <c r="R14">
-        <v>0.9999984500789427</v>
+        <v>0.9999947782113111</v>
       </c>
       <c r="S14">
-        <v>0.9999820276125707</v>
+        <v>0.999939527578682</v>
       </c>
       <c r="T14">
-        <v>0.9999984500789427</v>
+        <v>0.9999947782113111</v>
       </c>
       <c r="U14">
-        <v>0.9999958358412824</v>
+        <v>0.9999859838313724</v>
       </c>
       <c r="V14">
-        <v>1.000004120778509</v>
+        <v>1.000013857582986</v>
       </c>
       <c r="W14">
-        <v>0.9999963190190915</v>
+        <v>0.9999876085794865</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000011102381931</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="D15">
-        <v>1.000011102381931</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="E15">
-        <v>1.000006180191563</v>
+        <v>1.000024917127633</v>
       </c>
       <c r="F15">
-        <v>0.9999964280481056</v>
+        <v>0.9999855787532563</v>
       </c>
       <c r="G15">
-        <v>1.000004163819755</v>
+        <v>1.000016780317758</v>
       </c>
       <c r="H15">
-        <v>0.9999891809732728</v>
+        <v>0.9999563557678227</v>
       </c>
       <c r="I15">
-        <v>0.9999966726646068</v>
+        <v>0.999986573190206</v>
       </c>
       <c r="J15">
-        <v>0.9999833612875514</v>
+        <v>0.9999328765777147</v>
       </c>
       <c r="K15">
-        <v>0.9999833612875514</v>
+        <v>0.9999328765777147</v>
       </c>
       <c r="L15">
-        <v>1.000004163819755</v>
+        <v>1.000016780317758</v>
       </c>
       <c r="M15">
-        <v>1.000011102381931</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="N15">
-        <v>1.000011102381931</v>
+        <v>1.000044749049879</v>
       </c>
       <c r="O15">
-        <v>1.000004163819755</v>
+        <v>1.000016780317758</v>
       </c>
       <c r="P15">
-        <v>0.9999937625536532</v>
+        <v>0.9999748284477361</v>
       </c>
       <c r="Q15">
-        <v>1.00000029593393</v>
+        <v>1.000001179535507</v>
       </c>
       <c r="R15">
-        <v>0.9999995424964124</v>
+        <v>0.9999981353151172</v>
       </c>
       <c r="S15">
-        <v>0.9999946510518041</v>
+        <v>0.9999784118829096</v>
       </c>
       <c r="T15">
-        <v>0.9999995424964125</v>
+        <v>0.9999981353151172</v>
       </c>
       <c r="U15">
-        <v>0.9999987638843358</v>
+        <v>0.9999949961746519</v>
       </c>
       <c r="V15">
-        <v>1.000001231583855</v>
+        <v>1.000004946749697</v>
       </c>
       <c r="W15">
-        <v>0.9999989066483177</v>
+        <v>0.9999955763877534</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000873189183406</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="D16">
-        <v>1.000873189183406</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="E16">
-        <v>1.000486173973164</v>
+        <v>1.000048100206401</v>
       </c>
       <c r="F16">
-        <v>0.9997185624347266</v>
+        <v>0.9999721583898542</v>
       </c>
       <c r="G16">
-        <v>1.000327443274259</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="H16">
-        <v>0.9991483679646779</v>
+        <v>0.9999157450960973</v>
       </c>
       <c r="I16">
-        <v>0.9997380455539769</v>
+        <v>0.9999740819035061</v>
       </c>
       <c r="J16">
-        <v>0.9986902133870607</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="K16">
-        <v>0.9986902133870607</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="L16">
-        <v>1.000327443274259</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="M16">
-        <v>1.000873189183406</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="N16">
-        <v>1.000873189183406</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="O16">
-        <v>1.000327443274259</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="P16">
-        <v>0.9995088283306599</v>
+        <v>0.9999514060829833</v>
       </c>
       <c r="Q16">
-        <v>1.000023002854493</v>
+        <v>1.00000227659877</v>
       </c>
       <c r="R16">
-        <v>0.9999636152815752</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="S16">
-        <v>0.9995787396986821</v>
+        <v>0.9999583235186069</v>
       </c>
       <c r="T16">
-        <v>0.9999636152815752</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="U16">
-        <v>0.999902352069863</v>
+        <v>0.9999903394707136</v>
       </c>
       <c r="V16">
-        <v>1.000096519492572</v>
+        <v>1.000009549041978</v>
       </c>
       <c r="W16">
-        <v>0.9999136798806912</v>
+        <v>0.9999914599870681</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000715680004216</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="D17">
-        <v>1.000715680004216</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="E17">
-        <v>1.000398477777481</v>
+        <v>1.000092172566503</v>
       </c>
       <c r="F17">
-        <v>0.9997693291197938</v>
+        <v>0.9999466435176133</v>
       </c>
       <c r="G17">
-        <v>1.00026837848213</v>
+        <v>1.000062082567932</v>
       </c>
       <c r="H17">
-        <v>0.9993019889006395</v>
+        <v>0.9998385332142097</v>
       </c>
       <c r="I17">
-        <v>0.9997852969446351</v>
+        <v>0.9999503300970641</v>
       </c>
       <c r="J17">
-        <v>0.9989264778976606</v>
+        <v>0.9997516678755942</v>
       </c>
       <c r="K17">
-        <v>0.9989264778976606</v>
+        <v>0.9997516678755942</v>
       </c>
       <c r="L17">
-        <v>1.00026837848213</v>
+        <v>1.000062082567932</v>
       </c>
       <c r="M17">
-        <v>1.000715680004216</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="N17">
-        <v>1.000715680004216</v>
+        <v>1.000165550748697</v>
       </c>
       <c r="O17">
-        <v>1.00026837848213</v>
+        <v>1.000062082567932</v>
       </c>
       <c r="P17">
-        <v>0.9995974281898954</v>
+        <v>0.9999068752217632</v>
       </c>
       <c r="Q17">
-        <v>1.000018853800962</v>
+        <v>1.000004363042773</v>
       </c>
       <c r="R17">
-        <v>0.9999701787946688</v>
+        <v>0.9999931003974077</v>
       </c>
       <c r="S17">
-        <v>0.9996547284998615</v>
+        <v>0.9999201313203799</v>
       </c>
       <c r="T17">
-        <v>0.9999701787946688</v>
+        <v>0.9999931003974077</v>
       </c>
       <c r="U17">
-        <v>0.99991996637595</v>
+        <v>0.9999814861774592</v>
       </c>
       <c r="V17">
-        <v>1.000079109101603</v>
+        <v>1.000018299091707</v>
       </c>
       <c r="W17">
-        <v>0.9999292509510855</v>
+        <v>0.9999836328944433</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000401151058756</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="D18">
-        <v>1.000401151058756</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="E18">
-        <v>1.000223359350424</v>
+        <v>1.000135193920335</v>
       </c>
       <c r="F18">
-        <v>0.9998707046434354</v>
+        <v>0.9999217445469987</v>
       </c>
       <c r="G18">
-        <v>1.000150434547585</v>
+        <v>1.000091054304642</v>
       </c>
       <c r="H18">
-        <v>0.9996087539421453</v>
+        <v>0.9997631822151327</v>
       </c>
       <c r="I18">
-        <v>0.9998796540452398</v>
+        <v>0.999927158184032</v>
       </c>
       <c r="J18">
-        <v>0.9993982727003931</v>
+        <v>0.999635776492207</v>
       </c>
       <c r="K18">
-        <v>0.9993982727003931</v>
+        <v>0.999635776492207</v>
       </c>
       <c r="L18">
-        <v>1.000150434547585</v>
+        <v>1.000091054304642</v>
       </c>
       <c r="M18">
-        <v>1.000401151058756</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="N18">
-        <v>1.000401151058756</v>
+        <v>1.000242805985243</v>
       </c>
       <c r="O18">
-        <v>1.000150434547585</v>
+        <v>1.000091054304642</v>
       </c>
       <c r="P18">
-        <v>0.9997743536239891</v>
+        <v>0.9998634153984245</v>
       </c>
       <c r="Q18">
-        <v>1.00001056959551</v>
+        <v>1.00000639942582</v>
       </c>
       <c r="R18">
-        <v>0.9999832861022447</v>
+        <v>0.999989878927364</v>
       </c>
       <c r="S18">
-        <v>0.9998064706304713</v>
+        <v>0.9998828584479492</v>
       </c>
       <c r="T18">
-        <v>0.9999832861022447</v>
+        <v>0.999989878927364</v>
       </c>
       <c r="U18">
-        <v>0.9999551407375424</v>
+        <v>0.9999728453322727</v>
       </c>
       <c r="V18">
-        <v>1.000044342801785</v>
+        <v>1.000026837462867</v>
       </c>
       <c r="W18">
-        <v>0.9999603456044455</v>
+        <v>0.9999759962441541</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000438793001085</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="D19">
-        <v>1.000438793001085</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="E19">
-        <v>1.000244314617433</v>
+        <v>1.000002097075331</v>
       </c>
       <c r="F19">
-        <v>0.9998585754366865</v>
+        <v>0.9999987889397211</v>
       </c>
       <c r="G19">
-        <v>1.000164552750599</v>
+        <v>1.000001410230164</v>
       </c>
       <c r="H19">
-        <v>0.9995720408817155</v>
+        <v>0.9999963300318389</v>
       </c>
       <c r="I19">
-        <v>0.9998683584325884</v>
+        <v>0.9999988688745989</v>
       </c>
       <c r="J19">
-        <v>0.9993418079705698</v>
+        <v>0.9999943557769397</v>
       </c>
       <c r="K19">
-        <v>0.9993418079705698</v>
+        <v>0.9999943557769397</v>
       </c>
       <c r="L19">
-        <v>1.000164552750599</v>
+        <v>1.000001410230164</v>
       </c>
       <c r="M19">
-        <v>1.000438793001085</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="N19">
-        <v>1.000438793001085</v>
+        <v>1.000003763201912</v>
       </c>
       <c r="O19">
-        <v>1.000164552750599</v>
+        <v>1.000001410230164</v>
       </c>
       <c r="P19">
-        <v>0.9997531803605842</v>
+        <v>0.9999978830035517</v>
       </c>
       <c r="Q19">
-        <v>1.000011564093643</v>
+        <v>1.000000099584943</v>
       </c>
       <c r="R19">
-        <v>0.9999817179074179</v>
+        <v>0.999999843069672</v>
       </c>
       <c r="S19">
-        <v>0.9997883120526184</v>
+        <v>0.9999981849822749</v>
       </c>
       <c r="T19">
-        <v>0.9999817179074179</v>
+        <v>0.999999843069672</v>
       </c>
       <c r="U19">
-        <v>0.999950932289735</v>
+        <v>0.9999995795371843</v>
       </c>
       <c r="V19">
-        <v>1.000048504432005</v>
+        <v>1.00000041627013</v>
       </c>
       <c r="W19">
-        <v>0.9999566244801595</v>
+        <v>0.9999996280450837</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000184903476</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="D20">
-        <v>1.000000184903476</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="E20">
-        <v>1.000000104626104</v>
+        <v>1.000006132110835</v>
       </c>
       <c r="F20">
-        <v>0.9999999423455955</v>
+        <v>0.9999964531423976</v>
       </c>
       <c r="G20">
-        <v>1.000000068497251</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="H20">
-        <v>0.9999998202659246</v>
+        <v>0.9999892620442824</v>
       </c>
       <c r="I20">
-        <v>0.9999999423365631</v>
+        <v>0.9999966946855027</v>
       </c>
       <c r="J20">
-        <v>0.9999997233669029</v>
+        <v>0.9999834855089936</v>
       </c>
       <c r="K20">
-        <v>0.9999997233669029</v>
+        <v>0.9999834855089936</v>
       </c>
       <c r="L20">
-        <v>1.000000068497251</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="M20">
-        <v>1.000000184903476</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="N20">
-        <v>1.000000184903476</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="O20">
-        <v>1.000000068497251</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="P20">
-        <v>0.9999998959320767</v>
+        <v>0.9999938067077594</v>
       </c>
       <c r="Q20">
-        <v>1.000000005421423</v>
+        <v>1.000000290524461</v>
       </c>
       <c r="R20">
-        <v>0.9999999922558764</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="S20">
-        <v>0.9999999114032496</v>
+        <v>0.9999946888526389</v>
       </c>
       <c r="T20">
-        <v>0.9999999922558764</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="U20">
-        <v>0.9999999797783062</v>
+        <v>0.9999987691902846</v>
       </c>
       <c r="V20">
-        <v>1.00000002080334</v>
+        <v>1.000001217392872</v>
       </c>
       <c r="W20">
-        <v>0.9999999818548834</v>
+        <v>0.9999989116885355</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000003913348432</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="D21">
-        <v>1.000003913348432</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="E21">
-        <v>1.000002180887901</v>
+        <v>1.000009174078404</v>
       </c>
       <c r="F21">
-        <v>0.9999987407654194</v>
+        <v>0.999994692375943</v>
       </c>
       <c r="G21">
-        <v>1.000001467438052</v>
+        <v>1.000006176208383</v>
       </c>
       <c r="H21">
-        <v>0.9999961837576067</v>
+        <v>0.9999839332695309</v>
       </c>
       <c r="I21">
-        <v>0.9999988239842331</v>
+        <v>0.9999950552376545</v>
       </c>
       <c r="J21">
-        <v>0.9999941305977275</v>
+        <v>0.9999752892090208</v>
       </c>
       <c r="K21">
-        <v>0.9999941305977275</v>
+        <v>0.9999752892090208</v>
       </c>
       <c r="L21">
-        <v>1.000001467438052</v>
+        <v>1.000006176208383</v>
       </c>
       <c r="M21">
-        <v>1.000003913348432</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="N21">
-        <v>1.000003913348432</v>
+        <v>1.000016474179622</v>
       </c>
       <c r="O21">
-        <v>1.000001467438052</v>
+        <v>1.000006176208383</v>
       </c>
       <c r="P21">
-        <v>0.9999977990178899</v>
+        <v>0.9999907327087016</v>
       </c>
       <c r="Q21">
-        <v>1.000000104101736</v>
+        <v>1.000000434292163</v>
       </c>
       <c r="R21">
-        <v>0.9999998371280704</v>
+        <v>0.9999993131990083</v>
       </c>
       <c r="S21">
-        <v>0.9999981129337331</v>
+        <v>0.999992052597782</v>
       </c>
       <c r="T21">
-        <v>0.9999998371280704</v>
+        <v>0.9999993131990083</v>
       </c>
       <c r="U21">
-        <v>0.9999995630374077</v>
+        <v>0.9999981579932419</v>
       </c>
       <c r="V21">
-        <v>1.000000433099613</v>
+        <v>1.000001821230518</v>
       </c>
       <c r="W21">
-        <v>0.9999996135271779</v>
+        <v>0.9999983713458674</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000013777383224</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="D22">
-        <v>1.000013777383224</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="E22">
-        <v>1.000007674014265</v>
+        <v>1.00001920506452</v>
       </c>
       <c r="F22">
-        <v>0.9999955617224306</v>
+        <v>0.9999888852356863</v>
       </c>
       <c r="G22">
-        <v>1.000005166281609</v>
+        <v>1.000012934706264</v>
       </c>
       <c r="H22">
-        <v>0.9999865604900799</v>
+        <v>0.9999663603326342</v>
       </c>
       <c r="I22">
-        <v>0.9999958648025803</v>
+        <v>0.9999896498881794</v>
       </c>
       <c r="J22">
-        <v>0.9999793338119747</v>
+        <v>0.9999482637263475</v>
       </c>
       <c r="K22">
-        <v>0.9999793338119747</v>
+        <v>0.9999482637263475</v>
       </c>
       <c r="L22">
-        <v>1.000005166281609</v>
+        <v>1.000012934706264</v>
       </c>
       <c r="M22">
-        <v>1.000013777383224</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="N22">
-        <v>1.000013777383224</v>
+        <v>1.000034492081001</v>
       </c>
       <c r="O22">
-        <v>1.000005166281609</v>
+        <v>1.000012934706264</v>
       </c>
       <c r="P22">
-        <v>0.999992250046792</v>
+        <v>0.9999805992163056</v>
       </c>
       <c r="Q22">
-        <v>1.00000036400202</v>
+        <v>1.000000909970975</v>
       </c>
       <c r="R22">
-        <v>0.9999994258256028</v>
+        <v>0.9999985635045374</v>
       </c>
       <c r="S22">
-        <v>0.9999933539386716</v>
+        <v>0.9999833612227658</v>
       </c>
       <c r="T22">
-        <v>0.9999994258256028</v>
+        <v>0.9999985635045374</v>
       </c>
       <c r="U22">
-        <v>0.9999984597998097</v>
+        <v>0.9999961439373246</v>
       </c>
       <c r="V22">
-        <v>1.000001523316493</v>
+        <v>1.00000381356606</v>
       </c>
       <c r="W22">
-        <v>0.9999986380984717</v>
+        <v>0.9999965907176119</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000060220505675</v>
+      </c>
+      <c r="D23">
+        <v>1.000060220505675</v>
+      </c>
+      <c r="E23">
+        <v>1.000033530406344</v>
+      </c>
+      <c r="F23">
+        <v>0.999980593454932</v>
+      </c>
+      <c r="G23">
+        <v>1.000022580899122</v>
+      </c>
+      <c r="H23">
+        <v>0.9999412687159043</v>
+      </c>
+      <c r="I23">
+        <v>0.99998193124024</v>
+      </c>
+      <c r="J23">
+        <v>0.9999096680515047</v>
+      </c>
+      <c r="K23">
+        <v>0.9999096680515047</v>
+      </c>
+      <c r="L23">
+        <v>1.000022580899122</v>
+      </c>
+      <c r="M23">
+        <v>1.000060220505675</v>
+      </c>
+      <c r="N23">
+        <v>1.000060220505675</v>
+      </c>
+      <c r="O23">
+        <v>1.000022580899122</v>
+      </c>
+      <c r="P23">
+        <v>0.9999661244753132</v>
+      </c>
+      <c r="Q23">
+        <v>1.000001587177027</v>
+      </c>
+      <c r="R23">
+        <v>0.9999974898187673</v>
+      </c>
+      <c r="S23">
+        <v>0.9999709474685194</v>
+      </c>
+      <c r="T23">
+        <v>0.9999974898187673</v>
+      </c>
+      <c r="U23">
+        <v>0.9999932657278086</v>
+      </c>
+      <c r="V23">
+        <v>1.000006656683382</v>
+      </c>
+      <c r="W23">
+        <v>0.9999940467716055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="D24">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="E24">
+        <v>0.9996225383247518</v>
+      </c>
+      <c r="F24">
+        <v>1.000218505735974</v>
+      </c>
+      <c r="G24">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="H24">
+        <v>1.000661187414454</v>
+      </c>
+      <c r="I24">
+        <v>1.000203374201499</v>
+      </c>
+      <c r="J24">
+        <v>1.001016882167312</v>
+      </c>
+      <c r="K24">
+        <v>1.001016882167312</v>
+      </c>
+      <c r="L24">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="M24">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="N24">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="O24">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="P24">
+        <v>1.000381329757513</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999821415418446</v>
+      </c>
+      <c r="R24">
+        <v>1.000028246366794</v>
+      </c>
+      <c r="S24">
+        <v>1.000327055083667</v>
+      </c>
+      <c r="T24">
+        <v>1.000028246366794</v>
+      </c>
+      <c r="U24">
+        <v>1.000075811209089</v>
+      </c>
+      <c r="V24">
+        <v>0.9999250648843427</v>
+      </c>
+      <c r="W24">
+        <v>1.000067015265597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="D25">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="E25">
+        <v>0.9999021391184588</v>
+      </c>
+      <c r="F25">
+        <v>1.000056652343239</v>
+      </c>
+      <c r="G25">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="H25">
+        <v>1.000171420936877</v>
+      </c>
+      <c r="I25">
+        <v>1.000052730265236</v>
+      </c>
+      <c r="J25">
+        <v>1.000263642544818</v>
+      </c>
+      <c r="K25">
+        <v>1.000263642544818</v>
+      </c>
+      <c r="L25">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="M25">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="N25">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="O25">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="P25">
+        <v>1.000098867550657</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999953724498674</v>
+      </c>
+      <c r="R25">
+        <v>1.000007325338903</v>
+      </c>
+      <c r="S25">
+        <v>1.000084795814851</v>
+      </c>
+      <c r="T25">
+        <v>1.000007325338903</v>
+      </c>
+      <c r="U25">
+        <v>1.000019657089987</v>
+      </c>
+      <c r="V25">
+        <v>0.9999805738550688</v>
+      </c>
+      <c r="W25">
+        <v>1.000017376404627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="D26">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="E26">
+        <v>1.000020748293913</v>
+      </c>
+      <c r="F26">
+        <v>0.9999879931283011</v>
+      </c>
+      <c r="G26">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="H26">
+        <v>0.9999636677832076</v>
+      </c>
+      <c r="I26">
+        <v>0.9999888180221413</v>
+      </c>
+      <c r="J26">
+        <v>0.9999441150210705</v>
+      </c>
+      <c r="K26">
+        <v>0.9999441150210705</v>
+      </c>
+      <c r="L26">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="M26">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="N26">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="O26">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="P26">
+        <v>0.9999790448547057</v>
+      </c>
+      <c r="Q26">
+        <v>1.000000983908321</v>
+      </c>
+      <c r="R26">
+        <v>0.9999984500789427</v>
+      </c>
+      <c r="S26">
+        <v>0.9999820276125707</v>
+      </c>
+      <c r="T26">
+        <v>0.9999984500789427</v>
+      </c>
+      <c r="U26">
+        <v>0.9999958358412824</v>
+      </c>
+      <c r="V26">
+        <v>1.000004120778509</v>
+      </c>
+      <c r="W26">
+        <v>0.9999963190190915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="D27">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="E27">
+        <v>1.000006180191563</v>
+      </c>
+      <c r="F27">
+        <v>0.9999964280481056</v>
+      </c>
+      <c r="G27">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="H27">
+        <v>0.9999891809732728</v>
+      </c>
+      <c r="I27">
+        <v>0.9999966726646068</v>
+      </c>
+      <c r="J27">
+        <v>0.9999833612875514</v>
+      </c>
+      <c r="K27">
+        <v>0.9999833612875514</v>
+      </c>
+      <c r="L27">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="M27">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="N27">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="O27">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="P27">
+        <v>0.9999937625536532</v>
+      </c>
+      <c r="Q27">
+        <v>1.00000029593393</v>
+      </c>
+      <c r="R27">
+        <v>0.9999995424964124</v>
+      </c>
+      <c r="S27">
+        <v>0.9999946510518041</v>
+      </c>
+      <c r="T27">
+        <v>0.9999995424964125</v>
+      </c>
+      <c r="U27">
+        <v>0.9999987638843358</v>
+      </c>
+      <c r="V27">
+        <v>1.000001231583855</v>
+      </c>
+      <c r="W27">
+        <v>0.9999989066483177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000873189183406</v>
+      </c>
+      <c r="D28">
+        <v>1.000873189183406</v>
+      </c>
+      <c r="E28">
+        <v>1.000486173973164</v>
+      </c>
+      <c r="F28">
+        <v>0.9997185624347266</v>
+      </c>
+      <c r="G28">
+        <v>1.000327443274259</v>
+      </c>
+      <c r="H28">
+        <v>0.9991483679646779</v>
+      </c>
+      <c r="I28">
+        <v>0.9997380455539769</v>
+      </c>
+      <c r="J28">
+        <v>0.9986902133870607</v>
+      </c>
+      <c r="K28">
+        <v>0.9986902133870607</v>
+      </c>
+      <c r="L28">
+        <v>1.000327443274259</v>
+      </c>
+      <c r="M28">
+        <v>1.000873189183406</v>
+      </c>
+      <c r="N28">
+        <v>1.000873189183406</v>
+      </c>
+      <c r="O28">
+        <v>1.000327443274259</v>
+      </c>
+      <c r="P28">
+        <v>0.9995088283306599</v>
+      </c>
+      <c r="Q28">
+        <v>1.000023002854493</v>
+      </c>
+      <c r="R28">
+        <v>0.9999636152815752</v>
+      </c>
+      <c r="S28">
+        <v>0.9995787396986821</v>
+      </c>
+      <c r="T28">
+        <v>0.9999636152815752</v>
+      </c>
+      <c r="U28">
+        <v>0.999902352069863</v>
+      </c>
+      <c r="V28">
+        <v>1.000096519492572</v>
+      </c>
+      <c r="W28">
+        <v>0.9999136798806912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000715680004216</v>
+      </c>
+      <c r="D29">
+        <v>1.000715680004216</v>
+      </c>
+      <c r="E29">
+        <v>1.000398477777481</v>
+      </c>
+      <c r="F29">
+        <v>0.9997693291197938</v>
+      </c>
+      <c r="G29">
+        <v>1.00026837848213</v>
+      </c>
+      <c r="H29">
+        <v>0.9993019889006395</v>
+      </c>
+      <c r="I29">
+        <v>0.9997852969446351</v>
+      </c>
+      <c r="J29">
+        <v>0.9989264778976606</v>
+      </c>
+      <c r="K29">
+        <v>0.9989264778976606</v>
+      </c>
+      <c r="L29">
+        <v>1.00026837848213</v>
+      </c>
+      <c r="M29">
+        <v>1.000715680004216</v>
+      </c>
+      <c r="N29">
+        <v>1.000715680004216</v>
+      </c>
+      <c r="O29">
+        <v>1.00026837848213</v>
+      </c>
+      <c r="P29">
+        <v>0.9995974281898954</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018853800962</v>
+      </c>
+      <c r="R29">
+        <v>0.9999701787946688</v>
+      </c>
+      <c r="S29">
+        <v>0.9996547284998615</v>
+      </c>
+      <c r="T29">
+        <v>0.9999701787946688</v>
+      </c>
+      <c r="U29">
+        <v>0.99991996637595</v>
+      </c>
+      <c r="V29">
+        <v>1.000079109101603</v>
+      </c>
+      <c r="W29">
+        <v>0.9999292509510855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000401151058756</v>
+      </c>
+      <c r="D30">
+        <v>1.000401151058756</v>
+      </c>
+      <c r="E30">
+        <v>1.000223359350424</v>
+      </c>
+      <c r="F30">
+        <v>0.9998707046434354</v>
+      </c>
+      <c r="G30">
+        <v>1.000150434547585</v>
+      </c>
+      <c r="H30">
+        <v>0.9996087539421453</v>
+      </c>
+      <c r="I30">
+        <v>0.9998796540452398</v>
+      </c>
+      <c r="J30">
+        <v>0.9993982727003931</v>
+      </c>
+      <c r="K30">
+        <v>0.9993982727003931</v>
+      </c>
+      <c r="L30">
+        <v>1.000150434547585</v>
+      </c>
+      <c r="M30">
+        <v>1.000401151058756</v>
+      </c>
+      <c r="N30">
+        <v>1.000401151058756</v>
+      </c>
+      <c r="O30">
+        <v>1.000150434547585</v>
+      </c>
+      <c r="P30">
+        <v>0.9997743536239891</v>
+      </c>
+      <c r="Q30">
+        <v>1.00001056959551</v>
+      </c>
+      <c r="R30">
+        <v>0.9999832861022447</v>
+      </c>
+      <c r="S30">
+        <v>0.9998064706304713</v>
+      </c>
+      <c r="T30">
+        <v>0.9999832861022447</v>
+      </c>
+      <c r="U30">
+        <v>0.9999551407375424</v>
+      </c>
+      <c r="V30">
+        <v>1.000044342801785</v>
+      </c>
+      <c r="W30">
+        <v>0.9999603456044455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="D31">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="E31">
+        <v>1.000244314617433</v>
+      </c>
+      <c r="F31">
+        <v>0.9998585754366865</v>
+      </c>
+      <c r="G31">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="H31">
+        <v>0.9995720408817155</v>
+      </c>
+      <c r="I31">
+        <v>0.9998683584325884</v>
+      </c>
+      <c r="J31">
+        <v>0.9993418079705698</v>
+      </c>
+      <c r="K31">
+        <v>0.9993418079705698</v>
+      </c>
+      <c r="L31">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="M31">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="N31">
+        <v>1.000438793001085</v>
+      </c>
+      <c r="O31">
+        <v>1.000164552750599</v>
+      </c>
+      <c r="P31">
+        <v>0.9997531803605842</v>
+      </c>
+      <c r="Q31">
+        <v>1.000011564093643</v>
+      </c>
+      <c r="R31">
+        <v>0.9999817179074179</v>
+      </c>
+      <c r="S31">
+        <v>0.9997883120526184</v>
+      </c>
+      <c r="T31">
+        <v>0.9999817179074179</v>
+      </c>
+      <c r="U31">
+        <v>0.999950932289735</v>
+      </c>
+      <c r="V31">
+        <v>1.000048504432005</v>
+      </c>
+      <c r="W31">
+        <v>0.9999566244801595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.001085183287671</v>
+      </c>
+      <c r="D32">
+        <v>1.001085183287671</v>
+      </c>
+      <c r="E32">
+        <v>1.000604207397261</v>
+      </c>
+      <c r="F32">
+        <v>0.999650234383561</v>
+      </c>
+      <c r="G32">
+        <v>1.000406939452055</v>
+      </c>
+      <c r="H32">
+        <v>0.9989416072602741</v>
+      </c>
+      <c r="I32">
+        <v>0.9996744486301371</v>
+      </c>
+      <c r="J32">
+        <v>0.9983722212328766</v>
+      </c>
+      <c r="K32">
+        <v>0.9983722212328766</v>
+      </c>
+      <c r="L32">
+        <v>1.000406939452055</v>
+      </c>
+      <c r="M32">
+        <v>1.001085183287671</v>
+      </c>
+      <c r="N32">
+        <v>1.001085183287671</v>
+      </c>
+      <c r="O32">
+        <v>1.000406939452055</v>
+      </c>
+      <c r="P32">
+        <v>0.9993895803424657</v>
+      </c>
+      <c r="Q32">
+        <v>1.000028586917808</v>
+      </c>
+      <c r="R32">
+        <v>0.999954781324201</v>
+      </c>
+      <c r="S32">
+        <v>0.9994764650228308</v>
+      </c>
+      <c r="T32">
+        <v>0.999954781324201</v>
+      </c>
+      <c r="U32">
+        <v>0.999878644589041</v>
+      </c>
+      <c r="V32">
+        <v>1.000119952328767</v>
+      </c>
+      <c r="W32">
+        <v>0.9998927226369863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001921253157895</v>
+      </c>
+      <c r="D33">
+        <v>1.001921253157895</v>
+      </c>
+      <c r="E33">
+        <v>1.001069735789474</v>
+      </c>
+      <c r="F33">
+        <v>0.9993807505263157</v>
+      </c>
+      <c r="G33">
+        <v>1.000720483684211</v>
+      </c>
+      <c r="H33">
+        <v>0.9981261721052631</v>
+      </c>
+      <c r="I33">
+        <v>0.9994236194736841</v>
+      </c>
+      <c r="J33">
+        <v>0.9971181047368419</v>
+      </c>
+      <c r="K33">
+        <v>0.9971181047368419</v>
+      </c>
+      <c r="L33">
+        <v>1.000720483684211</v>
+      </c>
+      <c r="M33">
+        <v>1.001921253157895</v>
+      </c>
+      <c r="N33">
+        <v>1.001921253157895</v>
+      </c>
+      <c r="O33">
+        <v>1.000720483684211</v>
+      </c>
+      <c r="P33">
+        <v>0.9989192942105263</v>
+      </c>
+      <c r="Q33">
+        <v>1.000050617105263</v>
+      </c>
+      <c r="R33">
+        <v>0.9999199471929824</v>
+      </c>
+      <c r="S33">
+        <v>0.999073112982456</v>
+      </c>
+      <c r="T33">
+        <v>0.9999199471929824</v>
+      </c>
+      <c r="U33">
+        <v>0.9997851480263157</v>
+      </c>
+      <c r="V33">
+        <v>1.000212369052631</v>
+      </c>
+      <c r="W33">
+        <v>0.9998100753947369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="D34">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="E34">
+        <v>1.001038338421053</v>
+      </c>
+      <c r="F34">
+        <v>0.9993989210526316</v>
+      </c>
+      <c r="G34">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="H34">
+        <v>0.9981811657894736</v>
+      </c>
+      <c r="I34">
+        <v>0.9994405315789475</v>
+      </c>
+      <c r="J34">
+        <v>0.9972026736842107</v>
+      </c>
+      <c r="K34">
+        <v>0.9972026736842107</v>
+      </c>
+      <c r="L34">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="M34">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="N34">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="O34">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="P34">
+        <v>0.9989510005263158</v>
+      </c>
+      <c r="Q34">
+        <v>1.000049124210526</v>
+      </c>
+      <c r="R34">
+        <v>0.9999222963157894</v>
+      </c>
+      <c r="S34">
+        <v>0.9991003073684211</v>
+      </c>
+      <c r="T34">
+        <v>0.9999222963157894</v>
+      </c>
+      <c r="U34">
+        <v>0.9997914525</v>
+      </c>
+      <c r="V34">
+        <v>1.000206139578947</v>
+      </c>
+      <c r="W34">
+        <v>0.9998156466447368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.001570744381011</v>
+      </c>
+      <c r="D35">
+        <v>1.001570744381011</v>
+      </c>
+      <c r="E35">
+        <v>1.000874597562959</v>
+      </c>
+      <c r="F35">
+        <v>0.9994937203567983</v>
+      </c>
+      <c r="G35">
+        <v>1.000589035659862</v>
+      </c>
+      <c r="H35">
+        <v>0.9984680230685989</v>
+      </c>
+      <c r="I35">
+        <v>0.9995287707070095</v>
+      </c>
+      <c r="J35">
+        <v>0.9976438582718105</v>
+      </c>
+      <c r="K35">
+        <v>0.9976438582718105</v>
+      </c>
+      <c r="L35">
+        <v>1.000589035659862</v>
+      </c>
+      <c r="M35">
+        <v>1.001570744381011</v>
+      </c>
+      <c r="N35">
+        <v>1.001570744381011</v>
+      </c>
+      <c r="O35">
+        <v>1.000589035659862</v>
+      </c>
+      <c r="P35">
+        <v>0.9991164469658365</v>
+      </c>
+      <c r="Q35">
+        <v>1.00004137800833</v>
+      </c>
+      <c r="R35">
+        <v>0.9999345461042278</v>
+      </c>
+      <c r="S35">
+        <v>0.9992422047628238</v>
+      </c>
+      <c r="T35">
+        <v>0.9999345461042278</v>
+      </c>
+      <c r="U35">
+        <v>0.9998243396673705</v>
+      </c>
+      <c r="V35">
+        <v>1.000173620610099</v>
+      </c>
+      <c r="W35">
+        <v>0.9998447232084891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="D36">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="E36">
+        <v>1.000000104626104</v>
+      </c>
+      <c r="F36">
+        <v>0.9999999423455955</v>
+      </c>
+      <c r="G36">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998202659246</v>
+      </c>
+      <c r="I36">
+        <v>0.9999999423365631</v>
+      </c>
+      <c r="J36">
+        <v>0.9999997233669029</v>
+      </c>
+      <c r="K36">
+        <v>0.9999997233669029</v>
+      </c>
+      <c r="L36">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="M36">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="N36">
+        <v>1.000000184903476</v>
+      </c>
+      <c r="O36">
+        <v>1.000000068497251</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998959320767</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000005421423</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999922558764</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999114032496</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999922558764</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999797783062</v>
+      </c>
+      <c r="V36">
+        <v>1.00000002080334</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999818548834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="D37">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="E37">
+        <v>1.000002180887901</v>
+      </c>
+      <c r="F37">
+        <v>0.9999987407654194</v>
+      </c>
+      <c r="G37">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="H37">
+        <v>0.9999961837576067</v>
+      </c>
+      <c r="I37">
+        <v>0.9999988239842331</v>
+      </c>
+      <c r="J37">
+        <v>0.9999941305977275</v>
+      </c>
+      <c r="K37">
+        <v>0.9999941305977275</v>
+      </c>
+      <c r="L37">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="M37">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="N37">
+        <v>1.000003913348432</v>
+      </c>
+      <c r="O37">
+        <v>1.000001467438052</v>
+      </c>
+      <c r="P37">
+        <v>0.9999977990178899</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000104101736</v>
+      </c>
+      <c r="R37">
+        <v>0.9999998371280704</v>
+      </c>
+      <c r="S37">
+        <v>0.9999981129337331</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998371280704</v>
+      </c>
+      <c r="U37">
+        <v>0.9999995630374077</v>
+      </c>
+      <c r="V37">
+        <v>1.000000433099613</v>
+      </c>
+      <c r="W37">
+        <v>0.9999996135271779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="D38">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="E38">
+        <v>1.000007674014265</v>
+      </c>
+      <c r="F38">
+        <v>0.9999955617224306</v>
+      </c>
+      <c r="G38">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="H38">
+        <v>0.9999865604900799</v>
+      </c>
+      <c r="I38">
+        <v>0.9999958648025803</v>
+      </c>
+      <c r="J38">
+        <v>0.9999793338119747</v>
+      </c>
+      <c r="K38">
+        <v>0.9999793338119747</v>
+      </c>
+      <c r="L38">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="M38">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="N38">
+        <v>1.000013777383224</v>
+      </c>
+      <c r="O38">
+        <v>1.000005166281609</v>
+      </c>
+      <c r="P38">
+        <v>0.999992250046792</v>
+      </c>
+      <c r="Q38">
+        <v>1.00000036400202</v>
+      </c>
+      <c r="R38">
+        <v>0.9999994258256028</v>
+      </c>
+      <c r="S38">
+        <v>0.9999933539386716</v>
+      </c>
+      <c r="T38">
+        <v>0.9999994258256028</v>
+      </c>
+      <c r="U38">
+        <v>0.9999984597998097</v>
+      </c>
+      <c r="V38">
+        <v>1.000001523316493</v>
+      </c>
+      <c r="W38">
+        <v>0.9999986380984717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000032278015548</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000032278015548</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000017967625014</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999896006000847</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000012103946693</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999685157373238</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999903110402357</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999515809143371</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999515809143371</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000012103946693</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000032278015548</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000032278015548</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000012103946693</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999981842430515</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000000852273389</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999986542921926</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999844284870383</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999986542921926</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999963908691656</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000003568298442</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999968077282411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000666566011657</v>
+      </c>
+      <c r="D40">
+        <v>1.000666566011657</v>
+      </c>
+      <c r="E40">
+        <v>1.000371137618276</v>
+      </c>
+      <c r="F40">
+        <v>0.999785157322813</v>
+      </c>
+      <c r="G40">
+        <v>1.000249959417768</v>
+      </c>
+      <c r="H40">
+        <v>0.9993498921454818</v>
+      </c>
+      <c r="I40">
+        <v>0.9998000277567181</v>
+      </c>
+      <c r="J40">
+        <v>0.999000150655409</v>
+      </c>
+      <c r="K40">
+        <v>0.999000150655409</v>
+      </c>
+      <c r="L40">
+        <v>1.000249959417768</v>
+      </c>
+      <c r="M40">
+        <v>1.000666566011657</v>
+      </c>
+      <c r="N40">
+        <v>1.000666566011657</v>
+      </c>
+      <c r="O40">
+        <v>1.000249959417768</v>
+      </c>
+      <c r="P40">
+        <v>0.9996250550365884</v>
+      </c>
+      <c r="Q40">
+        <v>1.00001755837029</v>
+      </c>
+      <c r="R40">
+        <v>0.9999722253616113</v>
+      </c>
+      <c r="S40">
+        <v>0.99967842246533</v>
+      </c>
+      <c r="T40">
+        <v>0.9999722253616113</v>
+      </c>
+      <c r="U40">
+        <v>0.9999254583519118</v>
+      </c>
+      <c r="V40">
+        <v>1.000073679883861</v>
+      </c>
+      <c r="W40">
+        <v>0.9999341062932363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996632675499196</v>
+      </c>
+      <c r="D41">
+        <v>0.9996632675499196</v>
+      </c>
+      <c r="E41">
+        <v>0.9998125137000058</v>
+      </c>
+      <c r="F41">
+        <v>1.000108535378849</v>
+      </c>
+      <c r="G41">
+        <v>0.999873723615655</v>
+      </c>
+      <c r="H41">
+        <v>1.000328418133286</v>
+      </c>
+      <c r="I41">
+        <v>1.000101015507304</v>
+      </c>
+      <c r="J41">
+        <v>1.000505099272476</v>
+      </c>
+      <c r="K41">
+        <v>1.000505099272476</v>
+      </c>
+      <c r="L41">
+        <v>0.999873723615655</v>
+      </c>
+      <c r="M41">
+        <v>0.9996632675499196</v>
+      </c>
+      <c r="N41">
+        <v>0.9996632675499196</v>
+      </c>
+      <c r="O41">
+        <v>0.999873723615655</v>
+      </c>
+      <c r="P41">
+        <v>1.000189411444066</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999911294972518</v>
+      </c>
+      <c r="R41">
+        <v>1.000014030146017</v>
+      </c>
+      <c r="S41">
+        <v>1.00016245275566</v>
+      </c>
+      <c r="T41">
+        <v>1.000014030146017</v>
+      </c>
+      <c r="U41">
+        <v>1.000037656454225</v>
+      </c>
+      <c r="V41">
+        <v>0.9999627786733638</v>
+      </c>
+      <c r="W41">
+        <v>1.000033287096644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000582482661904</v>
+      </c>
+      <c r="D42">
+        <v>1.000582482661904</v>
+      </c>
+      <c r="E42">
+        <v>1.000324318803828</v>
+      </c>
+      <c r="F42">
+        <v>0.9998122580827802</v>
+      </c>
+      <c r="G42">
+        <v>1.000218425925697</v>
+      </c>
+      <c r="H42">
+        <v>0.9994318987833434</v>
+      </c>
+      <c r="I42">
+        <v>0.9998252510264491</v>
+      </c>
+      <c r="J42">
+        <v>0.9991262738545955</v>
+      </c>
+      <c r="K42">
+        <v>0.9991262738545955</v>
+      </c>
+      <c r="L42">
+        <v>1.000218425925697</v>
+      </c>
+      <c r="M42">
+        <v>1.000582482661904</v>
+      </c>
+      <c r="N42">
+        <v>1.000582482661904</v>
+      </c>
+      <c r="O42">
+        <v>1.000218425925697</v>
+      </c>
+      <c r="P42">
+        <v>0.9996723498901463</v>
+      </c>
+      <c r="Q42">
+        <v>1.000015342004239</v>
+      </c>
+      <c r="R42">
+        <v>0.9999757274807322</v>
+      </c>
+      <c r="S42">
+        <v>0.9997189859543575</v>
+      </c>
+      <c r="T42">
+        <v>0.9999757274807322</v>
+      </c>
+      <c r="U42">
+        <v>0.9999348601312441</v>
+      </c>
+      <c r="V42">
+        <v>1.000064384637376</v>
+      </c>
+      <c r="W42">
+        <v>0.9999424168830369</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000044749049879</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="D3">
-        <v>0.9999328765777147</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="E3">
-        <v>1.000016780317758</v>
+        <v>1.000006132110835</v>
       </c>
       <c r="F3">
-        <v>1.000044749049879</v>
+        <v>0.9999964531423976</v>
       </c>
       <c r="G3">
-        <v>0.9999855787532563</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="H3">
-        <v>1.000024917127633</v>
+        <v>0.9999892620442824</v>
       </c>
       <c r="I3">
-        <v>1.000044749049879</v>
+        <v>0.9999966946855027</v>
       </c>
       <c r="J3">
-        <v>0.9999328765777147</v>
+        <v>0.9999834855089936</v>
       </c>
       <c r="K3">
-        <v>0.999986573190206</v>
+        <v>0.9999834855089936</v>
       </c>
       <c r="L3">
-        <v>1.000016780317758</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="M3">
-        <v>0.9999563557678227</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="N3">
-        <v>1.000044749049879</v>
+        <v>1.000011010203222</v>
       </c>
       <c r="O3">
-        <v>1.000016780317758</v>
+        <v>1.000004127906525</v>
       </c>
       <c r="P3">
-        <v>0.9999748284477361</v>
+        <v>0.9999938067077594</v>
       </c>
       <c r="Q3">
-        <v>1.000001179535507</v>
+        <v>1.000000290524461</v>
       </c>
       <c r="R3">
-        <v>0.9999981353151172</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="S3">
-        <v>0.9999784118829096</v>
+        <v>0.9999946888526389</v>
       </c>
       <c r="T3">
-        <v>0.9999981353151172</v>
+        <v>0.9999995412062469</v>
       </c>
       <c r="U3">
-        <v>0.9999949961746519</v>
+        <v>0.9999987691902846</v>
       </c>
       <c r="V3">
-        <v>1.000004946749697</v>
+        <v>1.000001217392872</v>
       </c>
       <c r="W3">
-        <v>0.9999955763877534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999989116885355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000086387327034</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="D4">
-        <v>0.9998704173582805</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="E4">
-        <v>1.000032394807686</v>
+        <v>1.000371137618276</v>
       </c>
       <c r="F4">
-        <v>1.000086387327034</v>
+        <v>0.999785157322813</v>
       </c>
       <c r="G4">
-        <v>0.9999721583898544</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="H4">
-        <v>1.000048100206401</v>
+        <v>0.9993498921454818</v>
       </c>
       <c r="I4">
-        <v>1.000086387327034</v>
+        <v>0.9998000277567181</v>
       </c>
       <c r="J4">
-        <v>0.9998704173582805</v>
+        <v>0.999000150655409</v>
       </c>
       <c r="K4">
-        <v>0.9999740819035061</v>
+        <v>0.999000150655409</v>
       </c>
       <c r="L4">
-        <v>1.000032394807686</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="M4">
-        <v>0.9999157450960975</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="N4">
-        <v>1.000086387327034</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="O4">
-        <v>1.000032394807686</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="P4">
-        <v>0.9999514060829833</v>
+        <v>0.9996250550365884</v>
       </c>
       <c r="Q4">
-        <v>1.00000227659877</v>
+        <v>1.00001755837029</v>
       </c>
       <c r="R4">
-        <v>0.9999963998310001</v>
+        <v>0.9999722253616113</v>
       </c>
       <c r="S4">
-        <v>0.9999583235186069</v>
+        <v>0.99967842246533</v>
       </c>
       <c r="T4">
-        <v>0.9999963998310001</v>
+        <v>0.9999722253616113</v>
       </c>
       <c r="U4">
-        <v>0.9999903394707137</v>
+        <v>0.9999254583519118</v>
       </c>
       <c r="V4">
-        <v>1.000009549041978</v>
+        <v>1.000073679883861</v>
       </c>
       <c r="W4">
-        <v>0.9999914599870682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999341062932363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000165550748697</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="D5">
-        <v>0.9997516678755942</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="E5">
-        <v>1.000062082567932</v>
+        <v>1.000271358638332</v>
       </c>
       <c r="F5">
-        <v>1.000165550748697</v>
+        <v>0.9998429180979845</v>
       </c>
       <c r="G5">
-        <v>0.9999466435176133</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="H5">
-        <v>1.000092172566503</v>
+        <v>0.999524672492796</v>
       </c>
       <c r="I5">
-        <v>1.000165550748697</v>
+        <v>0.9998537901729109</v>
       </c>
       <c r="J5">
-        <v>0.9997516678755942</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="K5">
-        <v>0.9999503300970641</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="L5">
-        <v>1.000062082567932</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="M5">
-        <v>0.9998385332142097</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="N5">
-        <v>1.000165550748697</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="O5">
-        <v>1.000062082567932</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="P5">
-        <v>0.9999068752217632</v>
+        <v>0.999725859632565</v>
       </c>
       <c r="Q5">
-        <v>1.000004363042773</v>
+        <v>1.000012839481269</v>
       </c>
       <c r="R5">
-        <v>0.9999931003974077</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="S5">
-        <v>0.9999201313203799</v>
+        <v>0.9997648791210382</v>
       </c>
       <c r="T5">
-        <v>0.9999931003974077</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="U5">
-        <v>0.9999814861774592</v>
+        <v>0.9999454993137608</v>
       </c>
       <c r="V5">
-        <v>1.000018299091707</v>
+        <v>1.000053871429394</v>
       </c>
       <c r="W5">
-        <v>0.9999836328944433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9999518224279543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000242805985243</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="D6">
-        <v>0.999635776492207</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="E6">
-        <v>1.000091054304642</v>
+        <v>1.000874597562959</v>
       </c>
       <c r="F6">
-        <v>1.000242805985243</v>
+        <v>0.9994937203567983</v>
       </c>
       <c r="G6">
-        <v>0.9999217445469989</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="H6">
-        <v>1.000135193920335</v>
+        <v>0.9984680230685989</v>
       </c>
       <c r="I6">
-        <v>1.000242805985243</v>
+        <v>0.9995287707070095</v>
       </c>
       <c r="J6">
-        <v>0.999635776492207</v>
+        <v>0.9976438582718105</v>
       </c>
       <c r="K6">
-        <v>0.999927158184032</v>
+        <v>0.9976438582718105</v>
       </c>
       <c r="L6">
-        <v>1.000091054304642</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="M6">
-        <v>0.9997631822151327</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="N6">
-        <v>1.000242805985243</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="O6">
-        <v>1.000091054304642</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="P6">
-        <v>0.9998634153984245</v>
+        <v>0.9991164469658365</v>
       </c>
       <c r="Q6">
-        <v>1.00000639942582</v>
+        <v>1.00004137800833</v>
       </c>
       <c r="R6">
-        <v>0.999989878927364</v>
+        <v>0.9999345461042278</v>
       </c>
       <c r="S6">
-        <v>0.9998828584479492</v>
+        <v>0.9992422047628238</v>
       </c>
       <c r="T6">
-        <v>0.999989878927364</v>
+        <v>0.9999345461042278</v>
       </c>
       <c r="U6">
-        <v>0.9999728453322727</v>
+        <v>0.9998243396673705</v>
       </c>
       <c r="V6">
-        <v>1.000026837462867</v>
+        <v>1.000173620610099</v>
       </c>
       <c r="W6">
-        <v>0.9999759962441541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9998447232084891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003763201912</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="D7">
-        <v>0.9999943557769397</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="E7">
-        <v>1.000001410230164</v>
+        <v>1.000030311243921</v>
       </c>
       <c r="F7">
-        <v>1.000003763201912</v>
+        <v>0.9999824566466365</v>
       </c>
       <c r="G7">
-        <v>0.9999987889397211</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="H7">
-        <v>1.000002097075331</v>
+        <v>0.9999469075248583</v>
       </c>
       <c r="I7">
-        <v>1.000003763201912</v>
+        <v>0.9999836665467412</v>
       </c>
       <c r="J7">
-        <v>0.9999943557769397</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="K7">
-        <v>0.9999988688745989</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="L7">
-        <v>1.000001410230164</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="M7">
-        <v>0.9999963300318389</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="N7">
-        <v>1.000003763201912</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="O7">
-        <v>1.000001410230164</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="P7">
-        <v>0.9999978830035519</v>
+        <v>0.9999693789438919</v>
       </c>
       <c r="Q7">
-        <v>1.000000099584943</v>
+        <v>1.000001434915856</v>
       </c>
       <c r="R7">
-        <v>0.999999843069672</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="S7">
-        <v>0.9999981849822749</v>
+        <v>0.9999737381781402</v>
       </c>
       <c r="T7">
-        <v>0.999999843069672</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="U7">
-        <v>0.9999995795371843</v>
+        <v>0.9999939130780939</v>
       </c>
       <c r="V7">
-        <v>1.00000041627013</v>
+        <v>1.000006018018066</v>
       </c>
       <c r="W7">
-        <v>0.9999996280450838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999946188516216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000011010203222</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="D8">
-        <v>0.9999834855089936</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="E8">
-        <v>1.000004127906525</v>
+        <v>1.000002180887901</v>
       </c>
       <c r="F8">
-        <v>1.000011010203222</v>
+        <v>0.9999987407654194</v>
       </c>
       <c r="G8">
-        <v>0.9999964531423978</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="H8">
-        <v>1.000006132110835</v>
+        <v>0.9999961837576067</v>
       </c>
       <c r="I8">
-        <v>1.000011010203222</v>
+        <v>0.9999988239842331</v>
       </c>
       <c r="J8">
-        <v>0.9999834855089936</v>
+        <v>0.9999941305977275</v>
       </c>
       <c r="K8">
-        <v>0.9999966946855027</v>
+        <v>0.9999941305977275</v>
       </c>
       <c r="L8">
-        <v>1.000004127906525</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="M8">
-        <v>0.9999892620442822</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="N8">
-        <v>1.000011010203222</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="O8">
-        <v>1.000004127906525</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="P8">
-        <v>0.9999938067077594</v>
+        <v>0.9999977990178899</v>
       </c>
       <c r="Q8">
-        <v>1.000000290524461</v>
+        <v>1.000000104101736</v>
       </c>
       <c r="R8">
-        <v>0.9999995412062468</v>
+        <v>0.9999998371280704</v>
       </c>
       <c r="S8">
-        <v>0.9999946888526389</v>
+        <v>0.9999981129337331</v>
       </c>
       <c r="T8">
-        <v>0.9999995412062468</v>
+        <v>0.9999998371280704</v>
       </c>
       <c r="U8">
-        <v>0.9999987691902845</v>
+        <v>0.9999995630374077</v>
       </c>
       <c r="V8">
-        <v>1.000001217392872</v>
+        <v>1.000000433099613</v>
       </c>
       <c r="W8">
-        <v>0.9999989116885354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999996135271779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000016474179622</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="D9">
-        <v>0.9999752892090208</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="E9">
-        <v>1.000006176208383</v>
+        <v>1.000048100206401</v>
       </c>
       <c r="F9">
-        <v>1.000016474179622</v>
+        <v>0.9999721583898542</v>
       </c>
       <c r="G9">
-        <v>0.999994692375943</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="H9">
-        <v>1.000009174078404</v>
+        <v>0.9999157450960973</v>
       </c>
       <c r="I9">
-        <v>1.000016474179622</v>
+        <v>0.9999740819035061</v>
       </c>
       <c r="J9">
-        <v>0.9999752892090208</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="K9">
-        <v>0.9999950552376545</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="L9">
-        <v>1.000006176208383</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="M9">
-        <v>0.9999839332695309</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="N9">
-        <v>1.000016474179622</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="O9">
-        <v>1.000006176208383</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="P9">
-        <v>0.9999907327087016</v>
+        <v>0.9999514060829833</v>
       </c>
       <c r="Q9">
-        <v>1.000000434292163</v>
+        <v>1.00000227659877</v>
       </c>
       <c r="R9">
-        <v>0.9999993131990083</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="S9">
-        <v>0.999992052597782</v>
+        <v>0.9999583235186069</v>
       </c>
       <c r="T9">
-        <v>0.9999993131990083</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="U9">
-        <v>0.9999981579932419</v>
+        <v>0.9999903394707136</v>
       </c>
       <c r="V9">
-        <v>1.000001821230518</v>
+        <v>1.000009549041978</v>
       </c>
       <c r="W9">
-        <v>0.9999983713458674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999914599870681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000034492081001</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="D10">
-        <v>0.9999482637263473</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="E10">
-        <v>1.000012934706264</v>
+        <v>1.000887586560081</v>
       </c>
       <c r="F10">
-        <v>1.000034492081001</v>
+        <v>0.9994862012335242</v>
       </c>
       <c r="G10">
-        <v>0.9999888852356863</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="H10">
-        <v>1.00001920506452</v>
+        <v>0.9984452699227533</v>
       </c>
       <c r="I10">
-        <v>1.000034492081001</v>
+        <v>0.9995217728219653</v>
       </c>
       <c r="J10">
-        <v>0.9999482637263473</v>
+        <v>0.9976088642919959</v>
       </c>
       <c r="K10">
-        <v>0.9999896498881794</v>
+        <v>0.9976088642919959</v>
       </c>
       <c r="L10">
-        <v>1.000012934706264</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="M10">
-        <v>0.9999663603326341</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="N10">
-        <v>1.000034492081001</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="O10">
-        <v>1.000012934706264</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="P10">
-        <v>0.9999805992163054</v>
+        <v>0.9991033247488219</v>
       </c>
       <c r="Q10">
-        <v>1.000000909970975</v>
+        <v>1.000041993219586</v>
       </c>
       <c r="R10">
-        <v>0.9999985635045373</v>
+        <v>0.9999335744549013</v>
       </c>
       <c r="S10">
-        <v>0.9999833612227658</v>
+        <v>0.9992309502437227</v>
       </c>
       <c r="T10">
-        <v>0.9999985635045373</v>
+        <v>0.9999335744549013</v>
       </c>
       <c r="U10">
-        <v>0.9999961439373245</v>
+        <v>0.999821731149557</v>
       </c>
       <c r="V10">
-        <v>1.00000381356606</v>
+        <v>1.000176199693058</v>
       </c>
       <c r="W10">
-        <v>0.9999965907176119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9998424173885845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000060220505675</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="D11">
-        <v>0.9999096680515047</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="E11">
-        <v>1.000022580899122</v>
+        <v>1.00018491712576</v>
       </c>
       <c r="F11">
-        <v>1.000060220505675</v>
+        <v>0.9998929567813448</v>
       </c>
       <c r="G11">
-        <v>0.999980593454932</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="H11">
-        <v>1.000033530406344</v>
+        <v>0.9996760891710192</v>
       </c>
       <c r="I11">
-        <v>1.000060220505675</v>
+        <v>0.9999003628746587</v>
       </c>
       <c r="J11">
-        <v>0.9999096680515047</v>
+        <v>0.9995018339265855</v>
       </c>
       <c r="K11">
-        <v>0.99998193124024</v>
+        <v>0.9995018339265855</v>
       </c>
       <c r="L11">
-        <v>1.000022580899122</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="M11">
-        <v>0.9999412687159043</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="N11">
-        <v>1.000060220505675</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="O11">
-        <v>1.000022580899122</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="P11">
-        <v>0.9999661244753132</v>
+        <v>0.9998131858432182</v>
       </c>
       <c r="Q11">
-        <v>1.000001587177027</v>
+        <v>1.000008747270598</v>
       </c>
       <c r="R11">
-        <v>0.9999974898187673</v>
+        <v>0.9999861605406773</v>
       </c>
       <c r="S11">
-        <v>0.9999709474685194</v>
+        <v>0.9998397761559271</v>
       </c>
       <c r="T11">
-        <v>0.9999974898187673</v>
+        <v>0.9999861605406773</v>
       </c>
       <c r="U11">
-        <v>0.9999932657278086</v>
+        <v>0.9999628596008442</v>
       </c>
       <c r="V11">
-        <v>1.000006656683382</v>
+        <v>1.000036709667794</v>
       </c>
       <c r="W11">
-        <v>0.9999940467716055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9999671681668332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993220795853563</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="D12">
-        <v>1.001016882167312</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="E12">
-        <v>0.9997457773477155</v>
+        <v>1.000270259800001</v>
       </c>
       <c r="F12">
-        <v>0.9993220795853563</v>
+        <v>0.9998435544210531</v>
       </c>
       <c r="G12">
-        <v>1.000218505735974</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="H12">
-        <v>0.9996225383247518</v>
+        <v>0.9995265969263151</v>
       </c>
       <c r="I12">
-        <v>0.9993220795853563</v>
+        <v>0.9998543833368435</v>
       </c>
       <c r="J12">
-        <v>1.001016882167312</v>
+        <v>0.9992719184842102</v>
       </c>
       <c r="K12">
-        <v>1.000203374201499</v>
+        <v>0.9992719184842102</v>
       </c>
       <c r="L12">
-        <v>0.9997457773477155</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="M12">
-        <v>1.000661187414454</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="N12">
-        <v>0.9993220795853563</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="O12">
-        <v>0.9997457773477155</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="P12">
-        <v>1.000381329757513</v>
+        <v>0.9997269708315786</v>
       </c>
       <c r="Q12">
-        <v>0.9999821415418446</v>
+        <v>1.0000127888</v>
       </c>
       <c r="R12">
-        <v>1.000028246366794</v>
+        <v>0.9999797762350869</v>
       </c>
       <c r="S12">
-        <v>1.000327055083667</v>
+        <v>0.9997658320280701</v>
       </c>
       <c r="T12">
-        <v>1.000028246366794</v>
+        <v>0.9999797762350869</v>
       </c>
       <c r="U12">
-        <v>1.000075811209089</v>
+        <v>0.9999457207815785</v>
       </c>
       <c r="V12">
-        <v>0.9999250648843427</v>
+        <v>1.000053654033684</v>
       </c>
       <c r="W12">
-        <v>1.000067015265597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9999520182960526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999824240915396</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="D13">
-        <v>1.000263642544818</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="E13">
-        <v>0.9999340925564953</v>
+        <v>0.9998254382561998</v>
       </c>
       <c r="F13">
-        <v>0.999824240915396</v>
+        <v>1.000101054906066</v>
       </c>
       <c r="G13">
-        <v>1.000056652343239</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="H13">
-        <v>0.9999021391184588</v>
+        <v>1.000305777215063</v>
       </c>
       <c r="I13">
-        <v>0.999824240915396</v>
+        <v>1.000094055231993</v>
       </c>
       <c r="J13">
-        <v>1.000263642544818</v>
+        <v>1.000470277037294</v>
       </c>
       <c r="K13">
-        <v>1.000052730265236</v>
+        <v>1.000470277037294</v>
       </c>
       <c r="L13">
-        <v>0.9999340925564953</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="M13">
-        <v>1.000171420936877</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="N13">
-        <v>0.999824240915396</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="O13">
-        <v>0.9999340925564953</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="P13">
-        <v>1.000098867550657</v>
+        <v>1.000176355433557</v>
       </c>
       <c r="Q13">
-        <v>0.9999953724498674</v>
+        <v>0.9999917443679429</v>
       </c>
       <c r="R13">
-        <v>1.000007325338903</v>
+        <v>1.000013064791021</v>
       </c>
       <c r="S13">
-        <v>1.000084795814851</v>
+        <v>1.000151255257727</v>
       </c>
       <c r="T13">
-        <v>1.000007325338903</v>
+        <v>1.000013064791021</v>
       </c>
       <c r="U13">
-        <v>1.000019657089987</v>
+        <v>1.000035062319782</v>
       </c>
       <c r="V13">
-        <v>0.9999805738550689</v>
+        <v>0.9999653465570161</v>
       </c>
       <c r="W13">
-        <v>1.000017376404627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000030994226526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000037260527417</v>
+        <v>1.0027541</v>
       </c>
       <c r="D14">
-        <v>0.9999441150210705</v>
+        <v>1.0027541</v>
       </c>
       <c r="E14">
-        <v>1.000013974688341</v>
+        <v>1.0015335</v>
       </c>
       <c r="F14">
-        <v>1.000037260527417</v>
+        <v>0.9991122999999995</v>
       </c>
       <c r="G14">
-        <v>0.9999879931283011</v>
+        <v>1.0010328</v>
       </c>
       <c r="H14">
-        <v>1.000020748293913</v>
+        <v>0.9973138699999996</v>
       </c>
       <c r="I14">
-        <v>1.000037260527417</v>
+        <v>0.9991737599999999</v>
       </c>
       <c r="J14">
-        <v>0.9999441150210705</v>
+        <v>0.9958687999999982</v>
       </c>
       <c r="K14">
-        <v>0.9999888180221413</v>
+        <v>0.9958687999999982</v>
       </c>
       <c r="L14">
-        <v>1.000013974688341</v>
+        <v>1.0010328</v>
       </c>
       <c r="M14">
-        <v>0.9999636677832076</v>
+        <v>1.0027541</v>
       </c>
       <c r="N14">
-        <v>1.000037260527417</v>
+        <v>1.0027541</v>
       </c>
       <c r="O14">
-        <v>1.000013974688341</v>
+        <v>1.0010328</v>
       </c>
       <c r="P14">
-        <v>0.9999790448547057</v>
+        <v>0.998450799999999</v>
       </c>
       <c r="Q14">
-        <v>1.000000983908321</v>
+        <v>1.00007255</v>
       </c>
       <c r="R14">
-        <v>0.9999984500789427</v>
+        <v>0.9998852333333325</v>
       </c>
       <c r="S14">
-        <v>0.9999820276125707</v>
+        <v>0.9986712999999993</v>
       </c>
       <c r="T14">
-        <v>0.9999984500789427</v>
+        <v>0.9998852333333325</v>
       </c>
       <c r="U14">
-        <v>0.9999958358412824</v>
+        <v>0.9996919999999991</v>
       </c>
       <c r="V14">
-        <v>1.000004120778509</v>
+        <v>1.000304419999999</v>
       </c>
       <c r="W14">
-        <v>0.9999963190190915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9997277412499994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000011102381931</v>
+        <v>1.0048569</v>
       </c>
       <c r="D15">
-        <v>0.9999833612875514</v>
+        <v>1.0048569</v>
       </c>
       <c r="E15">
-        <v>1.000004163819755</v>
+        <v>1.0027043</v>
       </c>
       <c r="F15">
-        <v>1.000011102381931</v>
+        <v>0.99843455</v>
       </c>
       <c r="G15">
-        <v>0.9999964280481056</v>
+        <v>1.0018213</v>
       </c>
       <c r="H15">
-        <v>1.000006180191563</v>
+        <v>0.9952630099999999</v>
       </c>
       <c r="I15">
-        <v>1.000011102381931</v>
+        <v>0.9985429299999999</v>
       </c>
       <c r="J15">
-        <v>0.9999833612875514</v>
+        <v>0.9927146300000002</v>
       </c>
       <c r="K15">
-        <v>0.9999966726646068</v>
+        <v>0.9927146300000002</v>
       </c>
       <c r="L15">
-        <v>1.000004163819755</v>
+        <v>1.0018213</v>
       </c>
       <c r="M15">
-        <v>0.9999891809732729</v>
+        <v>1.0048569</v>
       </c>
       <c r="N15">
-        <v>1.000011102381931</v>
+        <v>1.0048569</v>
       </c>
       <c r="O15">
-        <v>1.000004163819755</v>
+        <v>1.0018213</v>
       </c>
       <c r="P15">
-        <v>0.9999937625536532</v>
+        <v>0.997267965</v>
       </c>
       <c r="Q15">
-        <v>1.00000029593393</v>
+        <v>1.000127925</v>
       </c>
       <c r="R15">
-        <v>0.9999995424964125</v>
+        <v>0.99979761</v>
       </c>
       <c r="S15">
-        <v>0.9999946510518041</v>
+        <v>0.9976568266666668</v>
       </c>
       <c r="T15">
-        <v>0.9999995424964125</v>
+        <v>0.99979761</v>
       </c>
       <c r="U15">
-        <v>0.9999987638843358</v>
+        <v>0.9994568450000001</v>
       </c>
       <c r="V15">
-        <v>1.000001231583855</v>
+        <v>1.000536856</v>
       </c>
       <c r="W15">
-        <v>0.9999989066483177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.999519865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000184903475</v>
+        <v>1.0046855</v>
       </c>
       <c r="D16">
-        <v>0.9999997233669027</v>
+        <v>1.0046855</v>
       </c>
       <c r="E16">
-        <v>1.00000006849725</v>
+        <v>1.0026088</v>
       </c>
       <c r="F16">
-        <v>1.000000184903475</v>
+        <v>0.99848979</v>
       </c>
       <c r="G16">
-        <v>0.9999999423455955</v>
+        <v>1.0017571</v>
       </c>
       <c r="H16">
-        <v>1.000000104626104</v>
+        <v>0.9954301700000001</v>
       </c>
       <c r="I16">
-        <v>1.000000184903475</v>
+        <v>0.99859434</v>
       </c>
       <c r="J16">
-        <v>0.9999997233669027</v>
+        <v>0.99297171</v>
       </c>
       <c r="K16">
-        <v>0.9999999423365631</v>
+        <v>0.99297171</v>
       </c>
       <c r="L16">
-        <v>1.00000006849725</v>
+        <v>1.0017571</v>
       </c>
       <c r="M16">
-        <v>0.9999998202659245</v>
+        <v>1.0046855</v>
       </c>
       <c r="N16">
-        <v>1.000000184903475</v>
+        <v>1.0046855</v>
       </c>
       <c r="O16">
-        <v>1.00000006849725</v>
+        <v>1.0017571</v>
       </c>
       <c r="P16">
-        <v>0.9999998959320763</v>
+        <v>0.997364405</v>
       </c>
       <c r="Q16">
-        <v>1.000000005421423</v>
+        <v>1.000123445</v>
       </c>
       <c r="R16">
-        <v>0.999999992255876</v>
+        <v>0.9998047699999999</v>
       </c>
       <c r="S16">
-        <v>0.9999999114032493</v>
+        <v>0.9977395333333333</v>
       </c>
       <c r="T16">
-        <v>0.999999992255876</v>
+        <v>0.9998047699999999</v>
       </c>
       <c r="U16">
-        <v>0.9999999797783059</v>
+        <v>0.9994760249999999</v>
       </c>
       <c r="V16">
-        <v>1.00000002080334</v>
+        <v>1.00051792</v>
       </c>
       <c r="W16">
-        <v>0.9999999818548833</v>
+        <v>0.99953681375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003913348432</v>
+        <v>1.0013549</v>
       </c>
       <c r="D17">
-        <v>0.9999941305977281</v>
+        <v>1.0013549</v>
       </c>
       <c r="E17">
-        <v>1.000001467438052</v>
+        <v>1.0007544</v>
       </c>
       <c r="F17">
-        <v>1.000003913348432</v>
+        <v>0.9995632799999999</v>
       </c>
       <c r="G17">
-        <v>0.9999987407654194</v>
+        <v>1.0005081</v>
       </c>
       <c r="H17">
-        <v>1.000002180887901</v>
+        <v>0.99867851</v>
       </c>
       <c r="I17">
-        <v>1.000003913348432</v>
+        <v>0.9995935199999999</v>
       </c>
       <c r="J17">
-        <v>0.9999941305977281</v>
+        <v>0.99796758</v>
       </c>
       <c r="K17">
-        <v>0.9999988239842329</v>
+        <v>0.99796758</v>
       </c>
       <c r="L17">
-        <v>1.000001467438052</v>
+        <v>1.0005081</v>
       </c>
       <c r="M17">
-        <v>0.9999961837576067</v>
+        <v>1.0013549</v>
       </c>
       <c r="N17">
-        <v>1.000003913348432</v>
+        <v>1.0013549</v>
       </c>
       <c r="O17">
-        <v>1.000001467438052</v>
+        <v>1.0005081</v>
       </c>
       <c r="P17">
-        <v>0.9999977990178901</v>
+        <v>0.9992378399999999</v>
       </c>
       <c r="Q17">
-        <v>1.000000104101736</v>
+        <v>1.00003569</v>
       </c>
       <c r="R17">
-        <v>0.9999998371280707</v>
+        <v>0.9999435266666666</v>
       </c>
       <c r="S17">
-        <v>0.9999981129337332</v>
+        <v>0.9993463199999999</v>
       </c>
       <c r="T17">
-        <v>0.9999998371280707</v>
+        <v>0.9999435266666667</v>
       </c>
       <c r="U17">
-        <v>0.9999995630374079</v>
+        <v>0.999848465</v>
       </c>
       <c r="V17">
-        <v>1.000000433099613</v>
+        <v>1.000149752</v>
       </c>
       <c r="W17">
-        <v>0.9999996135271779</v>
+        <v>0.99986604875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013777383224</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="D18">
-        <v>0.9999793338119747</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="E18">
-        <v>1.000005166281609</v>
+        <v>1.000604207397261</v>
       </c>
       <c r="F18">
-        <v>1.000013777383224</v>
+        <v>0.999650234383561</v>
       </c>
       <c r="G18">
-        <v>0.9999955617224306</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="H18">
-        <v>1.000007674014265</v>
+        <v>0.9989416072602741</v>
       </c>
       <c r="I18">
-        <v>1.000013777383224</v>
+        <v>0.9996744486301371</v>
       </c>
       <c r="J18">
-        <v>0.9999793338119747</v>
+        <v>0.9983722212328766</v>
       </c>
       <c r="K18">
-        <v>0.9999958648025803</v>
+        <v>0.9983722212328766</v>
       </c>
       <c r="L18">
-        <v>1.000005166281609</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="M18">
-        <v>0.9999865604900799</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="N18">
-        <v>1.000013777383224</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="O18">
-        <v>1.000005166281609</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="P18">
-        <v>0.9999922500467919</v>
+        <v>0.9993895803424657</v>
       </c>
       <c r="Q18">
-        <v>1.00000036400202</v>
+        <v>1.000028586917808</v>
       </c>
       <c r="R18">
-        <v>0.9999994258256028</v>
+        <v>0.999954781324201</v>
       </c>
       <c r="S18">
-        <v>0.9999933539386715</v>
+        <v>0.9994764650228308</v>
       </c>
       <c r="T18">
-        <v>0.9999994258256028</v>
+        <v>0.999954781324201</v>
       </c>
       <c r="U18">
-        <v>0.9999984597998097</v>
+        <v>0.999878644589041</v>
       </c>
       <c r="V18">
-        <v>1.000001523316493</v>
+        <v>1.000119952328767</v>
       </c>
       <c r="W18">
-        <v>0.9999986380984716</v>
+        <v>0.9998927226369863</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000032278015548</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="D19">
-        <v>0.9999515809143371</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="E19">
-        <v>1.000012103946693</v>
+        <v>1.001069735789474</v>
       </c>
       <c r="F19">
-        <v>1.000032278015548</v>
+        <v>0.9993807505263157</v>
       </c>
       <c r="G19">
-        <v>0.9999896006000847</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="H19">
-        <v>1.000017967625014</v>
+        <v>0.9981261721052631</v>
       </c>
       <c r="I19">
-        <v>1.000032278015548</v>
+        <v>0.9994236194736841</v>
       </c>
       <c r="J19">
-        <v>0.9999515809143371</v>
+        <v>0.9971181047368419</v>
       </c>
       <c r="K19">
-        <v>0.9999903110402357</v>
+        <v>0.9971181047368419</v>
       </c>
       <c r="L19">
-        <v>1.000012103946693</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="M19">
-        <v>0.9999685157373238</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="N19">
-        <v>1.000032278015548</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="O19">
-        <v>1.000012103946693</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="P19">
-        <v>0.999981842430515</v>
+        <v>0.9989192942105263</v>
       </c>
       <c r="Q19">
-        <v>1.000000852273389</v>
+        <v>1.000050617105263</v>
       </c>
       <c r="R19">
-        <v>0.9999986542921926</v>
+        <v>0.9999199471929824</v>
       </c>
       <c r="S19">
-        <v>0.9999844284870383</v>
+        <v>0.999073112982456</v>
       </c>
       <c r="T19">
-        <v>0.9999986542921926</v>
+        <v>0.9999199471929824</v>
       </c>
       <c r="U19">
-        <v>0.9999963908691656</v>
+        <v>0.9997851480263157</v>
       </c>
       <c r="V19">
-        <v>1.000003568298442</v>
+        <v>1.000212369052631</v>
       </c>
       <c r="W19">
-        <v>0.9999968077282411</v>
+        <v>0.9998100753947369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="D20">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="E20">
+        <v>1.001038338421053</v>
+      </c>
+      <c r="F20">
+        <v>0.9993989210526316</v>
+      </c>
+      <c r="G20">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="H20">
+        <v>0.9981811657894736</v>
+      </c>
+      <c r="I20">
+        <v>0.9994405315789475</v>
+      </c>
+      <c r="J20">
+        <v>0.9972026736842107</v>
+      </c>
+      <c r="K20">
+        <v>0.9972026736842107</v>
+      </c>
+      <c r="L20">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="M20">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="N20">
+        <v>1.001864887894737</v>
+      </c>
+      <c r="O20">
+        <v>1.000699327368421</v>
+      </c>
+      <c r="P20">
+        <v>0.9989510005263158</v>
+      </c>
+      <c r="Q20">
+        <v>1.000049124210526</v>
+      </c>
+      <c r="R20">
+        <v>0.9999222963157894</v>
+      </c>
+      <c r="S20">
+        <v>0.9991003073684211</v>
+      </c>
+      <c r="T20">
+        <v>0.9999222963157894</v>
+      </c>
+      <c r="U20">
+        <v>0.9997914525</v>
+      </c>
+      <c r="V20">
+        <v>1.000206139578947</v>
+      </c>
+      <c r="W20">
+        <v>0.9998156466447368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="D21">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="E21">
+        <v>1.000020748293913</v>
+      </c>
+      <c r="F21">
+        <v>0.9999879931283011</v>
+      </c>
+      <c r="G21">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="H21">
+        <v>0.9999636677832076</v>
+      </c>
+      <c r="I21">
+        <v>0.9999888180221413</v>
+      </c>
+      <c r="J21">
+        <v>0.9999441150210705</v>
+      </c>
+      <c r="K21">
+        <v>0.9999441150210705</v>
+      </c>
+      <c r="L21">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="M21">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="N21">
+        <v>1.000037260527417</v>
+      </c>
+      <c r="O21">
+        <v>1.000013974688341</v>
+      </c>
+      <c r="P21">
+        <v>0.9999790448547057</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000983908321</v>
+      </c>
+      <c r="R21">
+        <v>0.9999984500789427</v>
+      </c>
+      <c r="S21">
+        <v>0.9999820276125707</v>
+      </c>
+      <c r="T21">
+        <v>0.9999984500789427</v>
+      </c>
+      <c r="U21">
+        <v>0.9999958358412824</v>
+      </c>
+      <c r="V21">
+        <v>1.000004120778509</v>
+      </c>
+      <c r="W21">
+        <v>0.9999963190190915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="D22">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="E22">
+        <v>1.000006180191563</v>
+      </c>
+      <c r="F22">
+        <v>0.9999964280481056</v>
+      </c>
+      <c r="G22">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="H22">
+        <v>0.9999891809732728</v>
+      </c>
+      <c r="I22">
+        <v>0.9999966726646068</v>
+      </c>
+      <c r="J22">
+        <v>0.9999833612875514</v>
+      </c>
+      <c r="K22">
+        <v>0.9999833612875514</v>
+      </c>
+      <c r="L22">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="M22">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="N22">
+        <v>1.000011102381931</v>
+      </c>
+      <c r="O22">
+        <v>1.000004163819755</v>
+      </c>
+      <c r="P22">
+        <v>0.9999937625536532</v>
+      </c>
+      <c r="Q22">
+        <v>1.00000029593393</v>
+      </c>
+      <c r="R22">
+        <v>0.9999995424964124</v>
+      </c>
+      <c r="S22">
+        <v>0.9999946510518041</v>
+      </c>
+      <c r="T22">
+        <v>0.9999995424964125</v>
+      </c>
+      <c r="U22">
+        <v>0.9999987638843358</v>
+      </c>
+      <c r="V22">
+        <v>1.000001231583855</v>
+      </c>
+      <c r="W22">
+        <v>0.9999989066483177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="D23">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="E23">
+        <v>0.9996225383247518</v>
+      </c>
+      <c r="F23">
+        <v>1.000218505735974</v>
+      </c>
+      <c r="G23">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="H23">
+        <v>1.000661187414454</v>
+      </c>
+      <c r="I23">
+        <v>1.000203374201499</v>
+      </c>
+      <c r="J23">
+        <v>1.001016882167312</v>
+      </c>
+      <c r="K23">
+        <v>1.001016882167312</v>
+      </c>
+      <c r="L23">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="M23">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="N23">
+        <v>0.9993220795853563</v>
+      </c>
+      <c r="O23">
+        <v>0.9997457773477155</v>
+      </c>
+      <c r="P23">
+        <v>1.000381329757513</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999821415418446</v>
+      </c>
+      <c r="R23">
+        <v>1.000028246366794</v>
+      </c>
+      <c r="S23">
+        <v>1.000327055083667</v>
+      </c>
+      <c r="T23">
+        <v>1.000028246366794</v>
+      </c>
+      <c r="U23">
+        <v>1.000075811209089</v>
+      </c>
+      <c r="V23">
+        <v>0.9999250648843427</v>
+      </c>
+      <c r="W23">
+        <v>1.000067015265597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="D24">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="E24">
+        <v>0.9999021391184588</v>
+      </c>
+      <c r="F24">
+        <v>1.000056652343239</v>
+      </c>
+      <c r="G24">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="H24">
+        <v>1.000171420936877</v>
+      </c>
+      <c r="I24">
+        <v>1.000052730265236</v>
+      </c>
+      <c r="J24">
+        <v>1.000263642544818</v>
+      </c>
+      <c r="K24">
+        <v>1.000263642544818</v>
+      </c>
+      <c r="L24">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="M24">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="N24">
+        <v>0.9998242409153959</v>
+      </c>
+      <c r="O24">
+        <v>0.9999340925564953</v>
+      </c>
+      <c r="P24">
+        <v>1.000098867550657</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999953724498674</v>
+      </c>
+      <c r="R24">
+        <v>1.000007325338903</v>
+      </c>
+      <c r="S24">
+        <v>1.000084795814851</v>
+      </c>
+      <c r="T24">
+        <v>1.000007325338903</v>
+      </c>
+      <c r="U24">
+        <v>1.000019657089987</v>
+      </c>
+      <c r="V24">
+        <v>0.9999805738550688</v>
+      </c>
+      <c r="W24">
+        <v>1.000017376404627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998748973281784</v>
+      </c>
+      <c r="D25">
+        <v>0.9998748973281784</v>
+      </c>
+      <c r="E25">
+        <v>0.9999303451676381</v>
+      </c>
+      <c r="F25">
+        <v>1.000040322894581</v>
+      </c>
+      <c r="G25">
+        <v>0.9999530932005668</v>
+      </c>
+      <c r="H25">
+        <v>1.000122014752526</v>
+      </c>
+      <c r="I25">
+        <v>1.000037525828335</v>
+      </c>
+      <c r="J25">
+        <v>1.000187675666639</v>
+      </c>
+      <c r="K25">
+        <v>1.000187675666639</v>
+      </c>
+      <c r="L25">
+        <v>0.9999530932005668</v>
+      </c>
+      <c r="M25">
+        <v>0.9998748973281784</v>
+      </c>
+      <c r="N25">
+        <v>0.9998748973281784</v>
+      </c>
+      <c r="O25">
+        <v>0.9999530932005668</v>
+      </c>
+      <c r="P25">
+        <v>1.000070384433603</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999967080475738</v>
+      </c>
+      <c r="R25">
+        <v>1.000005222065128</v>
+      </c>
+      <c r="S25">
+        <v>1.000060363920595</v>
+      </c>
+      <c r="T25">
+        <v>1.000005222065128</v>
+      </c>
+      <c r="U25">
+        <v>1.000013997272491</v>
+      </c>
+      <c r="V25">
+        <v>0.9999861772836287</v>
+      </c>
+      <c r="W25">
+        <v>1.000012371004879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9999676819241877</v>
+      </c>
+      <c r="D26">
+        <v>0.9999676819241877</v>
+      </c>
+      <c r="E26">
+        <v>0.9999820011174129</v>
+      </c>
+      <c r="F26">
+        <v>1.000010421668853</v>
+      </c>
+      <c r="G26">
+        <v>0.9999878882361097</v>
+      </c>
+      <c r="H26">
+        <v>1.000031518563239</v>
+      </c>
+      <c r="I26">
+        <v>1.000009693905409</v>
+      </c>
+      <c r="J26">
+        <v>1.000048481770852</v>
+      </c>
+      <c r="K26">
+        <v>1.000048481770852</v>
+      </c>
+      <c r="L26">
+        <v>0.9999878882361097</v>
+      </c>
+      <c r="M26">
+        <v>0.9999676819241877</v>
+      </c>
+      <c r="N26">
+        <v>0.9999676819241877</v>
+      </c>
+      <c r="O26">
+        <v>0.9999878882361097</v>
+      </c>
+      <c r="P26">
+        <v>1.000018185003481</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999991549524815</v>
+      </c>
+      <c r="R26">
+        <v>1.000001350643716</v>
+      </c>
+      <c r="S26">
+        <v>1.000015597225272</v>
+      </c>
+      <c r="T26">
+        <v>1.000001350643717</v>
+      </c>
+      <c r="U26">
+        <v>1.000003618400001</v>
+      </c>
+      <c r="V26">
+        <v>0.9999964311048382</v>
+      </c>
+      <c r="W26">
+        <v>1.000003196927772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="D27">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="E27">
+        <v>1.000091385254813</v>
+      </c>
+      <c r="F27">
+        <v>0.999947092625268</v>
+      </c>
+      <c r="G27">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="H27">
+        <v>0.9998399040473298</v>
+      </c>
+      <c r="I27">
+        <v>0.9999507421599959</v>
+      </c>
+      <c r="J27">
+        <v>0.9997537838388235</v>
+      </c>
+      <c r="K27">
+        <v>0.9997537838388235</v>
+      </c>
+      <c r="L27">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="M27">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="N27">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="O27">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="P27">
+        <v>0.9999076689439799</v>
+      </c>
+      <c r="Q27">
+        <v>1.000004323337202</v>
+      </c>
+      <c r="R27">
+        <v>0.9999931650871066</v>
+      </c>
+      <c r="S27">
+        <v>0.9999208101710759</v>
+      </c>
+      <c r="T27">
+        <v>0.9999931650871066</v>
+      </c>
+      <c r="U27">
+        <v>0.9999816469716469</v>
+      </c>
+      <c r="V27">
+        <v>1.00001814905199</v>
+      </c>
+      <c r="W27">
+        <v>0.9999837716747328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="D28">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="E28">
+        <v>1.000113104595204</v>
+      </c>
+      <c r="F28">
+        <v>0.9999345196491572</v>
+      </c>
+      <c r="G28">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="H28">
+        <v>0.9998018452855616</v>
+      </c>
+      <c r="I28">
+        <v>0.9999390431892334</v>
+      </c>
+      <c r="J28">
+        <v>0.9996952468090634</v>
+      </c>
+      <c r="K28">
+        <v>0.9996952468090634</v>
+      </c>
+      <c r="L28">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="M28">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="N28">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="O28">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="P28">
+        <v>0.9998857173311294</v>
+      </c>
+      <c r="Q28">
+        <v>1.000005353751176</v>
+      </c>
+      <c r="R28">
+        <v>0.9999915356809144</v>
+      </c>
+      <c r="S28">
+        <v>0.9999019847704721</v>
+      </c>
+      <c r="T28">
+        <v>0.9999915356809144</v>
+      </c>
+      <c r="U28">
+        <v>0.9999772816729751</v>
+      </c>
+      <c r="V28">
+        <v>1.000022459814477</v>
+      </c>
+      <c r="W28">
+        <v>0.9999799134518867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9996993446052019</v>
+      </c>
+      <c r="D29">
+        <v>0.9996993446052019</v>
+      </c>
+      <c r="E29">
+        <v>0.9998325773606825</v>
+      </c>
+      <c r="F29">
+        <v>1.000096919119529</v>
+      </c>
+      <c r="G29">
+        <v>0.9998872578642235</v>
+      </c>
+      <c r="H29">
+        <v>1.000293234878969</v>
+      </c>
+      <c r="I29">
+        <v>1.000090194534204</v>
+      </c>
+      <c r="J29">
+        <v>1.00045098747777</v>
+      </c>
+      <c r="K29">
+        <v>1.00045098747777</v>
+      </c>
+      <c r="L29">
+        <v>0.9998872578642235</v>
+      </c>
+      <c r="M29">
+        <v>0.9996993446052019</v>
+      </c>
+      <c r="N29">
+        <v>0.9996993446052019</v>
+      </c>
+      <c r="O29">
+        <v>0.9998872578642235</v>
+      </c>
+      <c r="P29">
+        <v>1.000169122670997</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999920884918765</v>
+      </c>
+      <c r="R29">
+        <v>1.000012529982399</v>
+      </c>
+      <c r="S29">
+        <v>1.000145054820508</v>
+      </c>
+      <c r="T29">
+        <v>1.000012529982399</v>
+      </c>
+      <c r="U29">
+        <v>1.000033627266681</v>
+      </c>
+      <c r="V29">
+        <v>0.9999667707343853</v>
+      </c>
+      <c r="W29">
+        <v>1.0000297217131</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000666566011657</v>
+        <v>1.000376561804133</v>
       </c>
       <c r="D4">
-        <v>1.000666566011657</v>
+        <v>1.000376561804133</v>
       </c>
       <c r="E4">
-        <v>1.000371137618276</v>
+        <v>1.000209666865582</v>
       </c>
       <c r="F4">
-        <v>0.999785157322813</v>
+        <v>0.9998786302283161</v>
       </c>
       <c r="G4">
-        <v>1.000249959417768</v>
+        <v>1.000141211532202</v>
       </c>
       <c r="H4">
-        <v>0.9993498921454818</v>
+        <v>0.9996327355929255</v>
       </c>
       <c r="I4">
-        <v>0.9998000277567181</v>
+        <v>0.9998870296968145</v>
       </c>
       <c r="J4">
-        <v>0.999000150655409</v>
+        <v>0.9994351567200679</v>
       </c>
       <c r="K4">
-        <v>0.999000150655409</v>
+        <v>0.9994351567200679</v>
       </c>
       <c r="L4">
-        <v>1.000249959417768</v>
+        <v>1.000141211532202</v>
       </c>
       <c r="M4">
-        <v>1.000666566011657</v>
+        <v>1.000376561804133</v>
       </c>
       <c r="N4">
-        <v>1.000666566011657</v>
+        <v>1.000376561804133</v>
       </c>
       <c r="O4">
-        <v>1.000249959417768</v>
+        <v>1.000141211532202</v>
       </c>
       <c r="P4">
-        <v>0.9996250550365884</v>
+        <v>0.9997881841261349</v>
       </c>
       <c r="Q4">
-        <v>1.00001755837029</v>
+        <v>1.000009920880259</v>
       </c>
       <c r="R4">
-        <v>0.9999722253616113</v>
+        <v>0.9999843100188009</v>
       </c>
       <c r="S4">
-        <v>0.99967842246533</v>
+        <v>0.9998183328268619</v>
       </c>
       <c r="T4">
-        <v>0.9999722253616113</v>
+        <v>0.9999843100188009</v>
       </c>
       <c r="U4">
-        <v>0.9999254583519118</v>
+        <v>0.9999578900711797</v>
       </c>
       <c r="V4">
-        <v>1.000073679883861</v>
+        <v>1.00004162441777</v>
       </c>
       <c r="W4">
-        <v>0.9999341062932363</v>
+        <v>0.9999627754965303</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000487359891929</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="D5">
-        <v>1.000487359891929</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="E5">
-        <v>1.000271358638332</v>
+        <v>1.000959652468665</v>
       </c>
       <c r="F5">
-        <v>0.9998429180979845</v>
+        <v>0.9994444689647526</v>
       </c>
       <c r="G5">
-        <v>1.000182760864553</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="H5">
-        <v>0.999524672492796</v>
+        <v>0.998318991495254</v>
       </c>
       <c r="I5">
-        <v>0.9998537901729109</v>
+        <v>0.9994829255162048</v>
       </c>
       <c r="J5">
-        <v>0.9992689584005774</v>
+        <v>0.9974146457715826</v>
       </c>
       <c r="K5">
-        <v>0.9992689584005774</v>
+        <v>0.9974146457715826</v>
       </c>
       <c r="L5">
-        <v>1.000182760864553</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="M5">
-        <v>1.000487359891929</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="N5">
-        <v>1.000487359891929</v>
+        <v>1.001723575017208</v>
       </c>
       <c r="O5">
-        <v>1.000182760864553</v>
+        <v>1.000646334037491</v>
       </c>
       <c r="P5">
-        <v>0.999725859632565</v>
+        <v>0.9990304899045368</v>
       </c>
       <c r="Q5">
-        <v>1.000012839481269</v>
+        <v>1.000045401501122</v>
       </c>
       <c r="R5">
-        <v>0.9999796930523529</v>
+        <v>0.9999281849420939</v>
       </c>
       <c r="S5">
-        <v>0.9997648791210382</v>
+        <v>0.9991684829246088</v>
       </c>
       <c r="T5">
-        <v>0.9999796930523529</v>
+        <v>0.9999281849420941</v>
       </c>
       <c r="U5">
-        <v>0.9999454993137608</v>
+        <v>0.9998072559477587</v>
       </c>
       <c r="V5">
-        <v>1.000053871429394</v>
+        <v>1.000190519761649</v>
       </c>
       <c r="W5">
-        <v>0.9999518224279543</v>
+        <v>0.9998296159135811</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001570744381011</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="D6">
-        <v>1.001570744381011</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="E6">
-        <v>1.000874597562959</v>
+        <v>1.000371137618276</v>
       </c>
       <c r="F6">
-        <v>0.9994937203567983</v>
+        <v>0.999785157322813</v>
       </c>
       <c r="G6">
-        <v>1.000589035659862</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="H6">
-        <v>0.9984680230685989</v>
+        <v>0.9993498921454818</v>
       </c>
       <c r="I6">
-        <v>0.9995287707070095</v>
+        <v>0.9998000277567181</v>
       </c>
       <c r="J6">
-        <v>0.9976438582718105</v>
+        <v>0.999000150655409</v>
       </c>
       <c r="K6">
-        <v>0.9976438582718105</v>
+        <v>0.999000150655409</v>
       </c>
       <c r="L6">
-        <v>1.000589035659862</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="M6">
-        <v>1.001570744381011</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="N6">
-        <v>1.001570744381011</v>
+        <v>1.000666566011657</v>
       </c>
       <c r="O6">
-        <v>1.000589035659862</v>
+        <v>1.000249959417768</v>
       </c>
       <c r="P6">
-        <v>0.9991164469658365</v>
+        <v>0.9996250550365884</v>
       </c>
       <c r="Q6">
-        <v>1.00004137800833</v>
+        <v>1.00001755837029</v>
       </c>
       <c r="R6">
-        <v>0.9999345461042278</v>
+        <v>0.9999722253616113</v>
       </c>
       <c r="S6">
-        <v>0.9992422047628238</v>
+        <v>0.99967842246533</v>
       </c>
       <c r="T6">
-        <v>0.9999345461042278</v>
+        <v>0.9999722253616113</v>
       </c>
       <c r="U6">
-        <v>0.9998243396673705</v>
+        <v>0.9999254583519118</v>
       </c>
       <c r="V6">
-        <v>1.000173620610099</v>
+        <v>1.000073679883861</v>
       </c>
       <c r="W6">
-        <v>0.9998447232084891</v>
+        <v>0.9999341062932363</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000054437777955</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="D7">
-        <v>1.000054437777955</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="E7">
-        <v>1.000030311243921</v>
+        <v>1.000271358638332</v>
       </c>
       <c r="F7">
-        <v>0.9999824566466365</v>
+        <v>0.9998429180979845</v>
       </c>
       <c r="G7">
-        <v>1.000020413185076</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="H7">
-        <v>0.9999469075248583</v>
+        <v>0.999524672492796</v>
       </c>
       <c r="I7">
-        <v>0.9999836665467412</v>
+        <v>0.9998537901729109</v>
       </c>
       <c r="J7">
-        <v>0.9999183447027077</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="K7">
-        <v>0.9999183447027077</v>
+        <v>0.9992689584005774</v>
       </c>
       <c r="L7">
-        <v>1.000020413185076</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="M7">
-        <v>1.000054437777955</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="N7">
-        <v>1.000054437777955</v>
+        <v>1.000487359891929</v>
       </c>
       <c r="O7">
-        <v>1.000020413185076</v>
+        <v>1.000182760864553</v>
       </c>
       <c r="P7">
-        <v>0.9999693789438919</v>
+        <v>0.999725859632565</v>
       </c>
       <c r="Q7">
-        <v>1.000001434915856</v>
+        <v>1.000012839481269</v>
       </c>
       <c r="R7">
-        <v>0.9999977318885797</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="S7">
-        <v>0.9999737381781402</v>
+        <v>0.9997648791210382</v>
       </c>
       <c r="T7">
-        <v>0.9999977318885797</v>
+        <v>0.9999796930523529</v>
       </c>
       <c r="U7">
-        <v>0.9999939130780939</v>
+        <v>0.9999454993137608</v>
       </c>
       <c r="V7">
-        <v>1.000006018018066</v>
+        <v>1.000053871429394</v>
       </c>
       <c r="W7">
-        <v>0.9999946188516216</v>
+        <v>0.9999518224279543</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000003913348432</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="D8">
-        <v>1.000003913348432</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="E8">
-        <v>1.000002180887901</v>
+        <v>1.000874597562959</v>
       </c>
       <c r="F8">
-        <v>0.9999987407654194</v>
+        <v>0.9994937203567983</v>
       </c>
       <c r="G8">
-        <v>1.000001467438052</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="H8">
-        <v>0.9999961837576067</v>
+        <v>0.9984680230685989</v>
       </c>
       <c r="I8">
-        <v>0.9999988239842331</v>
+        <v>0.9995287707070095</v>
       </c>
       <c r="J8">
-        <v>0.9999941305977275</v>
+        <v>0.9976438582718105</v>
       </c>
       <c r="K8">
-        <v>0.9999941305977275</v>
+        <v>0.9976438582718105</v>
       </c>
       <c r="L8">
-        <v>1.000001467438052</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="M8">
-        <v>1.000003913348432</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="N8">
-        <v>1.000003913348432</v>
+        <v>1.001570744381011</v>
       </c>
       <c r="O8">
-        <v>1.000001467438052</v>
+        <v>1.000589035659862</v>
       </c>
       <c r="P8">
-        <v>0.9999977990178899</v>
+        <v>0.9991164469658365</v>
       </c>
       <c r="Q8">
-        <v>1.000000104101736</v>
+        <v>1.00004137800833</v>
       </c>
       <c r="R8">
-        <v>0.9999998371280704</v>
+        <v>0.9999345461042278</v>
       </c>
       <c r="S8">
-        <v>0.9999981129337331</v>
+        <v>0.9992422047628238</v>
       </c>
       <c r="T8">
-        <v>0.9999998371280704</v>
+        <v>0.9999345461042278</v>
       </c>
       <c r="U8">
-        <v>0.9999995630374077</v>
+        <v>0.9998243396673705</v>
       </c>
       <c r="V8">
-        <v>1.000000433099613</v>
+        <v>1.000173620610099</v>
       </c>
       <c r="W8">
-        <v>0.9999996135271779</v>
+        <v>0.9998447232084891</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000086387327034</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="D9">
-        <v>1.000086387327034</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="E9">
-        <v>1.000048100206401</v>
+        <v>1.000030311243921</v>
       </c>
       <c r="F9">
-        <v>0.9999721583898542</v>
+        <v>0.9999824566466365</v>
       </c>
       <c r="G9">
-        <v>1.000032394807686</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="H9">
-        <v>0.9999157450960973</v>
+        <v>0.9999469075248583</v>
       </c>
       <c r="I9">
-        <v>0.9999740819035061</v>
+        <v>0.9999836665467412</v>
       </c>
       <c r="J9">
-        <v>0.9998704173582805</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="K9">
-        <v>0.9998704173582805</v>
+        <v>0.9999183447027077</v>
       </c>
       <c r="L9">
-        <v>1.000032394807686</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="M9">
-        <v>1.000086387327034</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="N9">
-        <v>1.000086387327034</v>
+        <v>1.000054437777955</v>
       </c>
       <c r="O9">
-        <v>1.000032394807686</v>
+        <v>1.000020413185076</v>
       </c>
       <c r="P9">
-        <v>0.9999514060829833</v>
+        <v>0.9999693789438919</v>
       </c>
       <c r="Q9">
-        <v>1.00000227659877</v>
+        <v>1.000001434915856</v>
       </c>
       <c r="R9">
-        <v>0.9999963998310001</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="S9">
-        <v>0.9999583235186069</v>
+        <v>0.9999737381781402</v>
       </c>
       <c r="T9">
-        <v>0.9999963998310001</v>
+        <v>0.9999977318885797</v>
       </c>
       <c r="U9">
-        <v>0.9999903394707136</v>
+        <v>0.9999939130780939</v>
       </c>
       <c r="V9">
-        <v>1.000009549041978</v>
+        <v>1.000006018018066</v>
       </c>
       <c r="W9">
-        <v>0.9999914599870681</v>
+        <v>0.9999946188516216</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00159407386706</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="D10">
-        <v>1.00159407386706</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="E10">
-        <v>1.000887586560081</v>
+        <v>1.000002180887901</v>
       </c>
       <c r="F10">
-        <v>0.9994862012335242</v>
+        <v>0.9999987407654194</v>
       </c>
       <c r="G10">
-        <v>1.000597785205648</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="H10">
-        <v>0.9984452699227533</v>
+        <v>0.9999961837576067</v>
       </c>
       <c r="I10">
-        <v>0.9995217728219653</v>
+        <v>0.9999988239842331</v>
       </c>
       <c r="J10">
-        <v>0.9976088642919959</v>
+        <v>0.9999941305977275</v>
       </c>
       <c r="K10">
-        <v>0.9976088642919959</v>
+        <v>0.9999941305977275</v>
       </c>
       <c r="L10">
-        <v>1.000597785205648</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="M10">
-        <v>1.00159407386706</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="N10">
-        <v>1.00159407386706</v>
+        <v>1.000003913348432</v>
       </c>
       <c r="O10">
-        <v>1.000597785205648</v>
+        <v>1.000001467438052</v>
       </c>
       <c r="P10">
-        <v>0.9991033247488219</v>
+        <v>0.9999977990178899</v>
       </c>
       <c r="Q10">
-        <v>1.000041993219586</v>
+        <v>1.000000104101736</v>
       </c>
       <c r="R10">
-        <v>0.9999335744549013</v>
+        <v>0.9999998371280704</v>
       </c>
       <c r="S10">
-        <v>0.9992309502437227</v>
+        <v>0.9999981129337331</v>
       </c>
       <c r="T10">
-        <v>0.9999335744549013</v>
+        <v>0.9999998371280704</v>
       </c>
       <c r="U10">
-        <v>0.999821731149557</v>
+        <v>0.9999995630374077</v>
       </c>
       <c r="V10">
-        <v>1.000176199693058</v>
+        <v>1.000000433099613</v>
       </c>
       <c r="W10">
-        <v>0.9998424173885845</v>
+        <v>0.9999996135271779</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000332109935596</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="D11">
-        <v>1.000332109935596</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="E11">
-        <v>1.00018491712576</v>
+        <v>1.000048100206401</v>
       </c>
       <c r="F11">
-        <v>0.9998929567813448</v>
+        <v>0.9999721583898542</v>
       </c>
       <c r="G11">
-        <v>1.000124537759851</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="H11">
-        <v>0.9996760891710192</v>
+        <v>0.9999157450960973</v>
       </c>
       <c r="I11">
-        <v>0.9999003628746587</v>
+        <v>0.9999740819035061</v>
       </c>
       <c r="J11">
-        <v>0.9995018339265855</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="K11">
-        <v>0.9995018339265855</v>
+        <v>0.9998704173582805</v>
       </c>
       <c r="L11">
-        <v>1.000124537759851</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="M11">
-        <v>1.000332109935596</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="N11">
-        <v>1.000332109935596</v>
+        <v>1.000086387327034</v>
       </c>
       <c r="O11">
-        <v>1.000124537759851</v>
+        <v>1.000032394807686</v>
       </c>
       <c r="P11">
-        <v>0.9998131858432182</v>
+        <v>0.9999514060829833</v>
       </c>
       <c r="Q11">
-        <v>1.000008747270598</v>
+        <v>1.00000227659877</v>
       </c>
       <c r="R11">
-        <v>0.9999861605406773</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="S11">
-        <v>0.9998397761559271</v>
+        <v>0.9999583235186069</v>
       </c>
       <c r="T11">
-        <v>0.9999861605406773</v>
+        <v>0.9999963998310001</v>
       </c>
       <c r="U11">
-        <v>0.9999628596008442</v>
+        <v>0.9999903394707136</v>
       </c>
       <c r="V11">
-        <v>1.000036709667794</v>
+        <v>1.000009549041978</v>
       </c>
       <c r="W11">
-        <v>0.9999671681668332</v>
+        <v>0.9999914599870681</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000485387042104</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="D12">
-        <v>1.000485387042104</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="E12">
-        <v>1.000270259800001</v>
+        <v>1.000887586560081</v>
       </c>
       <c r="F12">
-        <v>0.9998435544210531</v>
+        <v>0.9994862012335242</v>
       </c>
       <c r="G12">
-        <v>1.000182023178947</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="H12">
-        <v>0.9995265969263151</v>
+        <v>0.9984452699227533</v>
       </c>
       <c r="I12">
-        <v>0.9998543833368435</v>
+        <v>0.9995217728219653</v>
       </c>
       <c r="J12">
-        <v>0.9992719184842102</v>
+        <v>0.9976088642919959</v>
       </c>
       <c r="K12">
-        <v>0.9992719184842102</v>
+        <v>0.9976088642919959</v>
       </c>
       <c r="L12">
-        <v>1.000182023178947</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="M12">
-        <v>1.000485387042104</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="N12">
-        <v>1.000485387042104</v>
+        <v>1.00159407386706</v>
       </c>
       <c r="O12">
-        <v>1.000182023178947</v>
+        <v>1.000597785205648</v>
       </c>
       <c r="P12">
-        <v>0.9997269708315786</v>
+        <v>0.9991033247488219</v>
       </c>
       <c r="Q12">
-        <v>1.0000127888</v>
+        <v>1.000041993219586</v>
       </c>
       <c r="R12">
-        <v>0.9999797762350869</v>
+        <v>0.9999335744549013</v>
       </c>
       <c r="S12">
-        <v>0.9997658320280701</v>
+        <v>0.9992309502437227</v>
       </c>
       <c r="T12">
-        <v>0.9999797762350869</v>
+        <v>0.9999335744549013</v>
       </c>
       <c r="U12">
-        <v>0.9999457207815785</v>
+        <v>0.999821731149557</v>
       </c>
       <c r="V12">
-        <v>1.000053654033684</v>
+        <v>1.000176199693058</v>
       </c>
       <c r="W12">
-        <v>0.9999520182960526</v>
+        <v>0.9998424173885845</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996864835059501</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="D13">
-        <v>0.9996864835059501</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="E13">
-        <v>0.9998254382561998</v>
+        <v>1.00018491712576</v>
       </c>
       <c r="F13">
-        <v>1.000101054906066</v>
+        <v>0.9998929567813448</v>
       </c>
       <c r="G13">
-        <v>0.9998824338298199</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="H13">
-        <v>1.000305777215063</v>
+        <v>0.9996760891710192</v>
       </c>
       <c r="I13">
-        <v>1.000094055231993</v>
+        <v>0.9999003628746587</v>
       </c>
       <c r="J13">
-        <v>1.000470277037294</v>
+        <v>0.9995018339265855</v>
       </c>
       <c r="K13">
-        <v>1.000470277037294</v>
+        <v>0.9995018339265855</v>
       </c>
       <c r="L13">
-        <v>0.9998824338298199</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="M13">
-        <v>0.9996864835059501</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="N13">
-        <v>0.9996864835059501</v>
+        <v>1.000332109935596</v>
       </c>
       <c r="O13">
-        <v>0.9998824338298199</v>
+        <v>1.000124537759851</v>
       </c>
       <c r="P13">
-        <v>1.000176355433557</v>
+        <v>0.9998131858432182</v>
       </c>
       <c r="Q13">
-        <v>0.9999917443679429</v>
+        <v>1.000008747270598</v>
       </c>
       <c r="R13">
-        <v>1.000013064791021</v>
+        <v>0.9999861605406773</v>
       </c>
       <c r="S13">
-        <v>1.000151255257727</v>
+        <v>0.9998397761559271</v>
       </c>
       <c r="T13">
-        <v>1.000013064791021</v>
+        <v>0.9999861605406773</v>
       </c>
       <c r="U13">
-        <v>1.000035062319782</v>
+        <v>0.9999628596008442</v>
       </c>
       <c r="V13">
-        <v>0.9999653465570161</v>
+        <v>1.000036709667794</v>
       </c>
       <c r="W13">
-        <v>1.000030994226526</v>
+        <v>0.9999671681668332</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0027541</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="D14">
-        <v>1.0027541</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="E14">
-        <v>1.0015335</v>
+        <v>1.000270259800001</v>
       </c>
       <c r="F14">
-        <v>0.9991122999999995</v>
+        <v>0.9998435544210531</v>
       </c>
       <c r="G14">
-        <v>1.0010328</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="H14">
-        <v>0.9973138699999996</v>
+        <v>0.9995265969263151</v>
       </c>
       <c r="I14">
-        <v>0.9991737599999999</v>
+        <v>0.9998543833368435</v>
       </c>
       <c r="J14">
-        <v>0.9958687999999982</v>
+        <v>0.9992719184842102</v>
       </c>
       <c r="K14">
-        <v>0.9958687999999982</v>
+        <v>0.9992719184842102</v>
       </c>
       <c r="L14">
-        <v>1.0010328</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="M14">
-        <v>1.0027541</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="N14">
-        <v>1.0027541</v>
+        <v>1.000485387042104</v>
       </c>
       <c r="O14">
-        <v>1.0010328</v>
+        <v>1.000182023178947</v>
       </c>
       <c r="P14">
-        <v>0.998450799999999</v>
+        <v>0.9997269708315786</v>
       </c>
       <c r="Q14">
-        <v>1.00007255</v>
+        <v>1.0000127888</v>
       </c>
       <c r="R14">
-        <v>0.9998852333333325</v>
+        <v>0.9999797762350869</v>
       </c>
       <c r="S14">
-        <v>0.9986712999999993</v>
+        <v>0.9997658320280701</v>
       </c>
       <c r="T14">
-        <v>0.9998852333333325</v>
+        <v>0.9999797762350869</v>
       </c>
       <c r="U14">
-        <v>0.9996919999999991</v>
+        <v>0.9999457207815785</v>
       </c>
       <c r="V14">
-        <v>1.000304419999999</v>
+        <v>1.000053654033684</v>
       </c>
       <c r="W14">
-        <v>0.9997277412499994</v>
+        <v>0.9999520182960526</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0048569</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="D15">
-        <v>1.0048569</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="E15">
-        <v>1.0027043</v>
+        <v>0.9998254382561998</v>
       </c>
       <c r="F15">
-        <v>0.99843455</v>
+        <v>1.000101054906066</v>
       </c>
       <c r="G15">
-        <v>1.0018213</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="H15">
-        <v>0.9952630099999999</v>
+        <v>1.000305777215063</v>
       </c>
       <c r="I15">
-        <v>0.9985429299999999</v>
+        <v>1.000094055231993</v>
       </c>
       <c r="J15">
-        <v>0.9927146300000002</v>
+        <v>1.000470277037294</v>
       </c>
       <c r="K15">
-        <v>0.9927146300000002</v>
+        <v>1.000470277037294</v>
       </c>
       <c r="L15">
-        <v>1.0018213</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="M15">
-        <v>1.0048569</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="N15">
-        <v>1.0048569</v>
+        <v>0.9996864835059501</v>
       </c>
       <c r="O15">
-        <v>1.0018213</v>
+        <v>0.9998824338298199</v>
       </c>
       <c r="P15">
-        <v>0.997267965</v>
+        <v>1.000176355433557</v>
       </c>
       <c r="Q15">
-        <v>1.000127925</v>
+        <v>0.9999917443679429</v>
       </c>
       <c r="R15">
-        <v>0.99979761</v>
+        <v>1.000013064791021</v>
       </c>
       <c r="S15">
-        <v>0.9976568266666668</v>
+        <v>1.000151255257727</v>
       </c>
       <c r="T15">
-        <v>0.99979761</v>
+        <v>1.000013064791021</v>
       </c>
       <c r="U15">
-        <v>0.9994568450000001</v>
+        <v>1.000035062319782</v>
       </c>
       <c r="V15">
-        <v>1.000536856</v>
+        <v>0.9999653465570161</v>
       </c>
       <c r="W15">
-        <v>0.999519865</v>
+        <v>1.000030994226526</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0046855</v>
+        <v>1.0027541</v>
       </c>
       <c r="D16">
-        <v>1.0046855</v>
+        <v>1.0027541</v>
       </c>
       <c r="E16">
-        <v>1.0026088</v>
+        <v>1.0015335</v>
       </c>
       <c r="F16">
-        <v>0.99848979</v>
+        <v>0.9991122999999995</v>
       </c>
       <c r="G16">
-        <v>1.0017571</v>
+        <v>1.0010328</v>
       </c>
       <c r="H16">
-        <v>0.9954301700000001</v>
+        <v>0.9973138699999996</v>
       </c>
       <c r="I16">
-        <v>0.99859434</v>
+        <v>0.9991737599999999</v>
       </c>
       <c r="J16">
-        <v>0.99297171</v>
+        <v>0.9958687999999982</v>
       </c>
       <c r="K16">
-        <v>0.99297171</v>
+        <v>0.9958687999999982</v>
       </c>
       <c r="L16">
-        <v>1.0017571</v>
+        <v>1.0010328</v>
       </c>
       <c r="M16">
-        <v>1.0046855</v>
+        <v>1.0027541</v>
       </c>
       <c r="N16">
-        <v>1.0046855</v>
+        <v>1.0027541</v>
       </c>
       <c r="O16">
-        <v>1.0017571</v>
+        <v>1.0010328</v>
       </c>
       <c r="P16">
-        <v>0.997364405</v>
+        <v>0.998450799999999</v>
       </c>
       <c r="Q16">
-        <v>1.000123445</v>
+        <v>1.00007255</v>
       </c>
       <c r="R16">
-        <v>0.9998047699999999</v>
+        <v>0.9998852333333325</v>
       </c>
       <c r="S16">
-        <v>0.9977395333333333</v>
+        <v>0.9986712999999993</v>
       </c>
       <c r="T16">
-        <v>0.9998047699999999</v>
+        <v>0.9998852333333325</v>
       </c>
       <c r="U16">
-        <v>0.9994760249999999</v>
+        <v>0.9996919999999991</v>
       </c>
       <c r="V16">
-        <v>1.00051792</v>
+        <v>1.000304419999999</v>
       </c>
       <c r="W16">
-        <v>0.99953681375</v>
+        <v>0.9997277412499994</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0013549</v>
+        <v>1.0048569</v>
       </c>
       <c r="D17">
-        <v>1.0013549</v>
+        <v>1.0048569</v>
       </c>
       <c r="E17">
-        <v>1.0007544</v>
+        <v>1.0027043</v>
       </c>
       <c r="F17">
-        <v>0.9995632799999999</v>
+        <v>0.99843455</v>
       </c>
       <c r="G17">
-        <v>1.0005081</v>
+        <v>1.0018213</v>
       </c>
       <c r="H17">
-        <v>0.99867851</v>
+        <v>0.9952630099999999</v>
       </c>
       <c r="I17">
-        <v>0.9995935199999999</v>
+        <v>0.9985429299999999</v>
       </c>
       <c r="J17">
-        <v>0.99796758</v>
+        <v>0.9927146300000002</v>
       </c>
       <c r="K17">
-        <v>0.99796758</v>
+        <v>0.9927146300000002</v>
       </c>
       <c r="L17">
-        <v>1.0005081</v>
+        <v>1.0018213</v>
       </c>
       <c r="M17">
-        <v>1.0013549</v>
+        <v>1.0048569</v>
       </c>
       <c r="N17">
-        <v>1.0013549</v>
+        <v>1.0048569</v>
       </c>
       <c r="O17">
-        <v>1.0005081</v>
+        <v>1.0018213</v>
       </c>
       <c r="P17">
-        <v>0.9992378399999999</v>
+        <v>0.997267965</v>
       </c>
       <c r="Q17">
-        <v>1.00003569</v>
+        <v>1.000127925</v>
       </c>
       <c r="R17">
-        <v>0.9999435266666666</v>
+        <v>0.99979761</v>
       </c>
       <c r="S17">
-        <v>0.9993463199999999</v>
+        <v>0.9976568266666668</v>
       </c>
       <c r="T17">
-        <v>0.9999435266666667</v>
+        <v>0.99979761</v>
       </c>
       <c r="U17">
-        <v>0.999848465</v>
+        <v>0.9994568450000001</v>
       </c>
       <c r="V17">
-        <v>1.000149752</v>
+        <v>1.000536856</v>
       </c>
       <c r="W17">
-        <v>0.99986604875</v>
+        <v>0.999519865</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001085183287671</v>
+        <v>1.0046855</v>
       </c>
       <c r="D18">
-        <v>1.001085183287671</v>
+        <v>1.0046855</v>
       </c>
       <c r="E18">
-        <v>1.000604207397261</v>
+        <v>1.0026088</v>
       </c>
       <c r="F18">
-        <v>0.999650234383561</v>
+        <v>0.99848979</v>
       </c>
       <c r="G18">
-        <v>1.000406939452055</v>
+        <v>1.0017571</v>
       </c>
       <c r="H18">
-        <v>0.9989416072602741</v>
+        <v>0.9954301700000001</v>
       </c>
       <c r="I18">
-        <v>0.9996744486301371</v>
+        <v>0.99859434</v>
       </c>
       <c r="J18">
-        <v>0.9983722212328766</v>
+        <v>0.99297171</v>
       </c>
       <c r="K18">
-        <v>0.9983722212328766</v>
+        <v>0.99297171</v>
       </c>
       <c r="L18">
-        <v>1.000406939452055</v>
+        <v>1.0017571</v>
       </c>
       <c r="M18">
-        <v>1.001085183287671</v>
+        <v>1.0046855</v>
       </c>
       <c r="N18">
-        <v>1.001085183287671</v>
+        <v>1.0046855</v>
       </c>
       <c r="O18">
-        <v>1.000406939452055</v>
+        <v>1.0017571</v>
       </c>
       <c r="P18">
-        <v>0.9993895803424657</v>
+        <v>0.997364405</v>
       </c>
       <c r="Q18">
-        <v>1.000028586917808</v>
+        <v>1.000123445</v>
       </c>
       <c r="R18">
-        <v>0.999954781324201</v>
+        <v>0.9998047699999999</v>
       </c>
       <c r="S18">
-        <v>0.9994764650228308</v>
+        <v>0.9977395333333333</v>
       </c>
       <c r="T18">
-        <v>0.999954781324201</v>
+        <v>0.9998047699999999</v>
       </c>
       <c r="U18">
-        <v>0.999878644589041</v>
+        <v>0.9994760249999999</v>
       </c>
       <c r="V18">
-        <v>1.000119952328767</v>
+        <v>1.00051792</v>
       </c>
       <c r="W18">
-        <v>0.9998927226369863</v>
+        <v>0.99953681375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001921253157895</v>
+        <v>1.0013549</v>
       </c>
       <c r="D19">
-        <v>1.001921253157895</v>
+        <v>1.0013549</v>
       </c>
       <c r="E19">
-        <v>1.001069735789474</v>
+        <v>1.0007544</v>
       </c>
       <c r="F19">
-        <v>0.9993807505263157</v>
+        <v>0.9995632799999999</v>
       </c>
       <c r="G19">
-        <v>1.000720483684211</v>
+        <v>1.0005081</v>
       </c>
       <c r="H19">
-        <v>0.9981261721052631</v>
+        <v>0.99867851</v>
       </c>
       <c r="I19">
-        <v>0.9994236194736841</v>
+        <v>0.9995935199999999</v>
       </c>
       <c r="J19">
-        <v>0.9971181047368419</v>
+        <v>0.99796758</v>
       </c>
       <c r="K19">
-        <v>0.9971181047368419</v>
+        <v>0.99796758</v>
       </c>
       <c r="L19">
-        <v>1.000720483684211</v>
+        <v>1.0005081</v>
       </c>
       <c r="M19">
-        <v>1.001921253157895</v>
+        <v>1.0013549</v>
       </c>
       <c r="N19">
-        <v>1.001921253157895</v>
+        <v>1.0013549</v>
       </c>
       <c r="O19">
-        <v>1.000720483684211</v>
+        <v>1.0005081</v>
       </c>
       <c r="P19">
-        <v>0.9989192942105263</v>
+        <v>0.9992378399999999</v>
       </c>
       <c r="Q19">
-        <v>1.000050617105263</v>
+        <v>1.00003569</v>
       </c>
       <c r="R19">
-        <v>0.9999199471929824</v>
+        <v>0.9999435266666666</v>
       </c>
       <c r="S19">
-        <v>0.999073112982456</v>
+        <v>0.9993463199999999</v>
       </c>
       <c r="T19">
-        <v>0.9999199471929824</v>
+        <v>0.9999435266666667</v>
       </c>
       <c r="U19">
-        <v>0.9997851480263157</v>
+        <v>0.999848465</v>
       </c>
       <c r="V19">
-        <v>1.000212369052631</v>
+        <v>1.000149752</v>
       </c>
       <c r="W19">
-        <v>0.9998100753947369</v>
+        <v>0.99986604875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001864887894737</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="D20">
-        <v>1.001864887894737</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="E20">
-        <v>1.001038338421053</v>
+        <v>1.000604207397261</v>
       </c>
       <c r="F20">
-        <v>0.9993989210526316</v>
+        <v>0.999650234383561</v>
       </c>
       <c r="G20">
-        <v>1.000699327368421</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="H20">
-        <v>0.9981811657894736</v>
+        <v>0.9989416072602741</v>
       </c>
       <c r="I20">
-        <v>0.9994405315789475</v>
+        <v>0.9996744486301371</v>
       </c>
       <c r="J20">
-        <v>0.9972026736842107</v>
+        <v>0.9983722212328766</v>
       </c>
       <c r="K20">
-        <v>0.9972026736842107</v>
+        <v>0.9983722212328766</v>
       </c>
       <c r="L20">
-        <v>1.000699327368421</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="M20">
-        <v>1.001864887894737</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="N20">
-        <v>1.001864887894737</v>
+        <v>1.001085183287671</v>
       </c>
       <c r="O20">
-        <v>1.000699327368421</v>
+        <v>1.000406939452055</v>
       </c>
       <c r="P20">
-        <v>0.9989510005263158</v>
+        <v>0.9993895803424657</v>
       </c>
       <c r="Q20">
-        <v>1.000049124210526</v>
+        <v>1.000028586917808</v>
       </c>
       <c r="R20">
-        <v>0.9999222963157894</v>
+        <v>0.999954781324201</v>
       </c>
       <c r="S20">
-        <v>0.9991003073684211</v>
+        <v>0.9994764650228308</v>
       </c>
       <c r="T20">
-        <v>0.9999222963157894</v>
+        <v>0.999954781324201</v>
       </c>
       <c r="U20">
-        <v>0.9997914525</v>
+        <v>0.999878644589041</v>
       </c>
       <c r="V20">
-        <v>1.000206139578947</v>
+        <v>1.000119952328767</v>
       </c>
       <c r="W20">
-        <v>0.9998156466447368</v>
+        <v>0.9998927226369863</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000037260527417</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="D21">
-        <v>1.000037260527417</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="E21">
-        <v>1.000020748293913</v>
+        <v>1.001069735789474</v>
       </c>
       <c r="F21">
-        <v>0.9999879931283011</v>
+        <v>0.9993807505263157</v>
       </c>
       <c r="G21">
-        <v>1.000013974688341</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="H21">
-        <v>0.9999636677832076</v>
+        <v>0.9981261721052631</v>
       </c>
       <c r="I21">
-        <v>0.9999888180221413</v>
+        <v>0.9994236194736841</v>
       </c>
       <c r="J21">
-        <v>0.9999441150210705</v>
+        <v>0.9971181047368419</v>
       </c>
       <c r="K21">
-        <v>0.9999441150210705</v>
+        <v>0.9971181047368419</v>
       </c>
       <c r="L21">
-        <v>1.000013974688341</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="M21">
-        <v>1.000037260527417</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="N21">
-        <v>1.000037260527417</v>
+        <v>1.001921253157895</v>
       </c>
       <c r="O21">
-        <v>1.000013974688341</v>
+        <v>1.000720483684211</v>
       </c>
       <c r="P21">
-        <v>0.9999790448547057</v>
+        <v>0.9989192942105263</v>
       </c>
       <c r="Q21">
-        <v>1.000000983908321</v>
+        <v>1.000050617105263</v>
       </c>
       <c r="R21">
-        <v>0.9999984500789427</v>
+        <v>0.9999199471929824</v>
       </c>
       <c r="S21">
-        <v>0.9999820276125707</v>
+        <v>0.999073112982456</v>
       </c>
       <c r="T21">
-        <v>0.9999984500789427</v>
+        <v>0.9999199471929824</v>
       </c>
       <c r="U21">
-        <v>0.9999958358412824</v>
+        <v>0.9997851480263157</v>
       </c>
       <c r="V21">
-        <v>1.000004120778509</v>
+        <v>1.000212369052631</v>
       </c>
       <c r="W21">
-        <v>0.9999963190190915</v>
+        <v>0.9998100753947369</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000011102381931</v>
+        <v>1.001864887894737</v>
       </c>
       <c r="D22">
-        <v>1.000011102381931</v>
+        <v>1.001864887894737</v>
       </c>
       <c r="E22">
-        <v>1.000006180191563</v>
+        <v>1.001038338421053</v>
       </c>
       <c r="F22">
-        <v>0.9999964280481056</v>
+        <v>0.9993989210526316</v>
       </c>
       <c r="G22">
-        <v>1.000004163819755</v>
+        <v>1.000699327368421</v>
       </c>
       <c r="H22">
-        <v>0.9999891809732728</v>
+        <v>0.9981811657894736</v>
       </c>
       <c r="I22">
-        <v>0.9999966726646068</v>
+        <v>0.9994405315789475</v>
       </c>
       <c r="J22">
-        <v>0.9999833612875514</v>
+        <v>0.9972026736842107</v>
       </c>
       <c r="K22">
-        <v>0.9999833612875514</v>
+        <v>0.9972026736842107</v>
       </c>
       <c r="L22">
-        <v>1.000004163819755</v>
+        <v>1.000699327368421</v>
       </c>
       <c r="M22">
-        <v>1.000011102381931</v>
+        <v>1.001864887894737</v>
       </c>
       <c r="N22">
-        <v>1.000011102381931</v>
+        <v>1.001864887894737</v>
       </c>
       <c r="O22">
-        <v>1.000004163819755</v>
+        <v>1.000699327368421</v>
       </c>
       <c r="P22">
-        <v>0.9999937625536532</v>
+        <v>0.9989510005263158</v>
       </c>
       <c r="Q22">
-        <v>1.00000029593393</v>
+        <v>1.000049124210526</v>
       </c>
       <c r="R22">
-        <v>0.9999995424964124</v>
+        <v>0.9999222963157894</v>
       </c>
       <c r="S22">
-        <v>0.9999946510518041</v>
+        <v>0.9991003073684211</v>
       </c>
       <c r="T22">
-        <v>0.9999995424964125</v>
+        <v>0.9999222963157894</v>
       </c>
       <c r="U22">
-        <v>0.9999987638843358</v>
+        <v>0.9997914525</v>
       </c>
       <c r="V22">
-        <v>1.000001231583855</v>
+        <v>1.000206139578947</v>
       </c>
       <c r="W22">
-        <v>0.9999989066483177</v>
+        <v>0.9998156466447368</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9993220795853563</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="D23">
-        <v>0.9993220795853563</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="E23">
-        <v>0.9996225383247518</v>
+        <v>1.000020748293913</v>
       </c>
       <c r="F23">
-        <v>1.000218505735974</v>
+        <v>0.9999879931283011</v>
       </c>
       <c r="G23">
-        <v>0.9997457773477155</v>
+        <v>1.000013974688341</v>
       </c>
       <c r="H23">
-        <v>1.000661187414454</v>
+        <v>0.9999636677832076</v>
       </c>
       <c r="I23">
-        <v>1.000203374201499</v>
+        <v>0.9999888180221413</v>
       </c>
       <c r="J23">
-        <v>1.001016882167312</v>
+        <v>0.9999441150210705</v>
       </c>
       <c r="K23">
-        <v>1.001016882167312</v>
+        <v>0.9999441150210705</v>
       </c>
       <c r="L23">
-        <v>0.9997457773477155</v>
+        <v>1.000013974688341</v>
       </c>
       <c r="M23">
-        <v>0.9993220795853563</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="N23">
-        <v>0.9993220795853563</v>
+        <v>1.000037260527417</v>
       </c>
       <c r="O23">
-        <v>0.9997457773477155</v>
+        <v>1.000013974688341</v>
       </c>
       <c r="P23">
-        <v>1.000381329757513</v>
+        <v>0.9999790448547057</v>
       </c>
       <c r="Q23">
-        <v>0.9999821415418446</v>
+        <v>1.000000983908321</v>
       </c>
       <c r="R23">
-        <v>1.000028246366794</v>
+        <v>0.9999984500789427</v>
       </c>
       <c r="S23">
-        <v>1.000327055083667</v>
+        <v>0.9999820276125707</v>
       </c>
       <c r="T23">
-        <v>1.000028246366794</v>
+        <v>0.9999984500789427</v>
       </c>
       <c r="U23">
-        <v>1.000075811209089</v>
+        <v>0.9999958358412824</v>
       </c>
       <c r="V23">
-        <v>0.9999250648843427</v>
+        <v>1.000004120778509</v>
       </c>
       <c r="W23">
-        <v>1.000067015265597</v>
+        <v>0.9999963190190915</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9998242409153959</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="D24">
-        <v>0.9998242409153959</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="E24">
-        <v>0.9999021391184588</v>
+        <v>1.000006180191563</v>
       </c>
       <c r="F24">
-        <v>1.000056652343239</v>
+        <v>0.9999964280481056</v>
       </c>
       <c r="G24">
-        <v>0.9999340925564953</v>
+        <v>1.000004163819755</v>
       </c>
       <c r="H24">
-        <v>1.000171420936877</v>
+        <v>0.9999891809732728</v>
       </c>
       <c r="I24">
-        <v>1.000052730265236</v>
+        <v>0.9999966726646068</v>
       </c>
       <c r="J24">
-        <v>1.000263642544818</v>
+        <v>0.9999833612875514</v>
       </c>
       <c r="K24">
-        <v>1.000263642544818</v>
+        <v>0.9999833612875514</v>
       </c>
       <c r="L24">
-        <v>0.9999340925564953</v>
+        <v>1.000004163819755</v>
       </c>
       <c r="M24">
-        <v>0.9998242409153959</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="N24">
-        <v>0.9998242409153959</v>
+        <v>1.000011102381931</v>
       </c>
       <c r="O24">
-        <v>0.9999340925564953</v>
+        <v>1.000004163819755</v>
       </c>
       <c r="P24">
-        <v>1.000098867550657</v>
+        <v>0.9999937625536532</v>
       </c>
       <c r="Q24">
-        <v>0.9999953724498674</v>
+        <v>1.00000029593393</v>
       </c>
       <c r="R24">
-        <v>1.000007325338903</v>
+        <v>0.9999995424964124</v>
       </c>
       <c r="S24">
-        <v>1.000084795814851</v>
+        <v>0.9999946510518041</v>
       </c>
       <c r="T24">
-        <v>1.000007325338903</v>
+        <v>0.9999995424964125</v>
       </c>
       <c r="U24">
-        <v>1.000019657089987</v>
+        <v>0.9999987638843358</v>
       </c>
       <c r="V24">
-        <v>0.9999805738550688</v>
+        <v>1.000001231583855</v>
       </c>
       <c r="W24">
-        <v>1.000017376404627</v>
+        <v>0.9999989066483177</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9998748973281784</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="D25">
-        <v>0.9998748973281784</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="E25">
-        <v>0.9999303451676381</v>
+        <v>0.9996225383247518</v>
       </c>
       <c r="F25">
-        <v>1.000040322894581</v>
+        <v>1.000218505735974</v>
       </c>
       <c r="G25">
-        <v>0.9999530932005668</v>
+        <v>0.9997457773477155</v>
       </c>
       <c r="H25">
-        <v>1.000122014752526</v>
+        <v>1.000661187414454</v>
       </c>
       <c r="I25">
-        <v>1.000037525828335</v>
+        <v>1.000203374201499</v>
       </c>
       <c r="J25">
-        <v>1.000187675666639</v>
+        <v>1.001016882167312</v>
       </c>
       <c r="K25">
-        <v>1.000187675666639</v>
+        <v>1.001016882167312</v>
       </c>
       <c r="L25">
-        <v>0.9999530932005668</v>
+        <v>0.9997457773477155</v>
       </c>
       <c r="M25">
-        <v>0.9998748973281784</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="N25">
-        <v>0.9998748973281784</v>
+        <v>0.9993220795853563</v>
       </c>
       <c r="O25">
-        <v>0.9999530932005668</v>
+        <v>0.9997457773477155</v>
       </c>
       <c r="P25">
-        <v>1.000070384433603</v>
+        <v>1.000381329757513</v>
       </c>
       <c r="Q25">
-        <v>0.9999967080475738</v>
+        <v>0.9999821415418446</v>
       </c>
       <c r="R25">
-        <v>1.000005222065128</v>
+        <v>1.000028246366794</v>
       </c>
       <c r="S25">
-        <v>1.000060363920595</v>
+        <v>1.000327055083667</v>
       </c>
       <c r="T25">
-        <v>1.000005222065128</v>
+        <v>1.000028246366794</v>
       </c>
       <c r="U25">
-        <v>1.000013997272491</v>
+        <v>1.000075811209089</v>
       </c>
       <c r="V25">
-        <v>0.9999861772836287</v>
+        <v>0.9999250648843427</v>
       </c>
       <c r="W25">
-        <v>1.000012371004879</v>
+        <v>1.000067015265597</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9999676819241877</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="D26">
-        <v>0.9999676819241877</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="E26">
-        <v>0.9999820011174129</v>
+        <v>0.9999021391184588</v>
       </c>
       <c r="F26">
-        <v>1.000010421668853</v>
+        <v>1.000056652343239</v>
       </c>
       <c r="G26">
-        <v>0.9999878882361097</v>
+        <v>0.9999340925564953</v>
       </c>
       <c r="H26">
-        <v>1.000031518563239</v>
+        <v>1.000171420936877</v>
       </c>
       <c r="I26">
-        <v>1.000009693905409</v>
+        <v>1.000052730265236</v>
       </c>
       <c r="J26">
-        <v>1.000048481770852</v>
+        <v>1.000263642544818</v>
       </c>
       <c r="K26">
-        <v>1.000048481770852</v>
+        <v>1.000263642544818</v>
       </c>
       <c r="L26">
-        <v>0.9999878882361097</v>
+        <v>0.9999340925564953</v>
       </c>
       <c r="M26">
-        <v>0.9999676819241877</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="N26">
-        <v>0.9999676819241877</v>
+        <v>0.9998242409153959</v>
       </c>
       <c r="O26">
-        <v>0.9999878882361097</v>
+        <v>0.9999340925564953</v>
       </c>
       <c r="P26">
-        <v>1.000018185003481</v>
+        <v>1.000098867550657</v>
       </c>
       <c r="Q26">
-        <v>0.9999991549524815</v>
+        <v>0.9999953724498674</v>
       </c>
       <c r="R26">
-        <v>1.000001350643716</v>
+        <v>1.000007325338903</v>
       </c>
       <c r="S26">
-        <v>1.000015597225272</v>
+        <v>1.000084795814851</v>
       </c>
       <c r="T26">
-        <v>1.000001350643717</v>
+        <v>1.000007325338903</v>
       </c>
       <c r="U26">
-        <v>1.000003618400001</v>
+        <v>1.000019657089987</v>
       </c>
       <c r="V26">
-        <v>0.9999964311048382</v>
+        <v>0.9999805738550688</v>
       </c>
       <c r="W26">
-        <v>1.000003196927772</v>
+        <v>1.000017376404627</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.00016415737336</v>
+        <v>0.9998748973281784</v>
       </c>
       <c r="D27">
-        <v>1.00016415737336</v>
+        <v>0.9998748973281784</v>
       </c>
       <c r="E27">
-        <v>1.000091385254813</v>
+        <v>0.9999303451676381</v>
       </c>
       <c r="F27">
-        <v>0.999947092625268</v>
+        <v>1.000040322894581</v>
       </c>
       <c r="G27">
-        <v>1.000061554049136</v>
+        <v>0.9999530932005668</v>
       </c>
       <c r="H27">
-        <v>0.9998399040473298</v>
+        <v>1.000122014752526</v>
       </c>
       <c r="I27">
-        <v>0.9999507421599959</v>
+        <v>1.000037525828335</v>
       </c>
       <c r="J27">
-        <v>0.9997537838388235</v>
+        <v>1.000187675666639</v>
       </c>
       <c r="K27">
-        <v>0.9997537838388235</v>
+        <v>1.000187675666639</v>
       </c>
       <c r="L27">
-        <v>1.000061554049136</v>
+        <v>0.9999530932005668</v>
       </c>
       <c r="M27">
-        <v>1.00016415737336</v>
+        <v>0.9998748973281784</v>
       </c>
       <c r="N27">
-        <v>1.00016415737336</v>
+        <v>0.9998748973281784</v>
       </c>
       <c r="O27">
-        <v>1.000061554049136</v>
+        <v>0.9999530932005668</v>
       </c>
       <c r="P27">
-        <v>0.9999076689439799</v>
+        <v>1.000070384433603</v>
       </c>
       <c r="Q27">
-        <v>1.000004323337202</v>
+        <v>0.9999967080475738</v>
       </c>
       <c r="R27">
-        <v>0.9999931650871066</v>
+        <v>1.000005222065128</v>
       </c>
       <c r="S27">
-        <v>0.9999208101710759</v>
+        <v>1.000060363920595</v>
       </c>
       <c r="T27">
-        <v>0.9999931650871066</v>
+        <v>1.000005222065128</v>
       </c>
       <c r="U27">
-        <v>0.9999816469716469</v>
+        <v>1.000013997272491</v>
       </c>
       <c r="V27">
-        <v>1.00001814905199</v>
+        <v>0.9999861772836287</v>
       </c>
       <c r="W27">
-        <v>0.9999837716747328</v>
+        <v>1.000012371004879</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000203172380484</v>
+        <v>0.9999676819241877</v>
       </c>
       <c r="D28">
-        <v>1.000203172380484</v>
+        <v>0.9999676819241877</v>
       </c>
       <c r="E28">
-        <v>1.000113104595204</v>
+        <v>0.9999820011174129</v>
       </c>
       <c r="F28">
-        <v>0.9999345196491572</v>
+        <v>1.000010421668853</v>
       </c>
       <c r="G28">
-        <v>1.000076187853195</v>
+        <v>0.9999878882361097</v>
       </c>
       <c r="H28">
-        <v>0.9998018452855616</v>
+        <v>1.000031518563239</v>
       </c>
       <c r="I28">
-        <v>0.9999390431892334</v>
+        <v>1.000009693905409</v>
       </c>
       <c r="J28">
-        <v>0.9996952468090634</v>
+        <v>1.000048481770852</v>
       </c>
       <c r="K28">
-        <v>0.9996952468090634</v>
+        <v>1.000048481770852</v>
       </c>
       <c r="L28">
-        <v>1.000076187853195</v>
+        <v>0.9999878882361097</v>
       </c>
       <c r="M28">
-        <v>1.000203172380484</v>
+        <v>0.9999676819241877</v>
       </c>
       <c r="N28">
-        <v>1.000203172380484</v>
+        <v>0.9999676819241877</v>
       </c>
       <c r="O28">
-        <v>1.000076187853195</v>
+        <v>0.9999878882361097</v>
       </c>
       <c r="P28">
-        <v>0.9998857173311294</v>
+        <v>1.000018185003481</v>
       </c>
       <c r="Q28">
-        <v>1.000005353751176</v>
+        <v>0.9999991549524815</v>
       </c>
       <c r="R28">
-        <v>0.9999915356809144</v>
+        <v>1.000001350643716</v>
       </c>
       <c r="S28">
-        <v>0.9999019847704721</v>
+        <v>1.000015597225272</v>
       </c>
       <c r="T28">
-        <v>0.9999915356809144</v>
+        <v>1.000001350643717</v>
       </c>
       <c r="U28">
-        <v>0.9999772816729751</v>
+        <v>1.000003618400001</v>
       </c>
       <c r="V28">
-        <v>1.000022459814477</v>
+        <v>0.9999964311048382</v>
       </c>
       <c r="W28">
-        <v>0.9999799134518867</v>
+        <v>1.000003196927772</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="D29">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="E29">
+        <v>1.000091385254813</v>
+      </c>
+      <c r="F29">
+        <v>0.999947092625268</v>
+      </c>
+      <c r="G29">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="H29">
+        <v>0.9998399040473298</v>
+      </c>
+      <c r="I29">
+        <v>0.9999507421599959</v>
+      </c>
+      <c r="J29">
+        <v>0.9997537838388235</v>
+      </c>
+      <c r="K29">
+        <v>0.9997537838388235</v>
+      </c>
+      <c r="L29">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="M29">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="N29">
+        <v>1.00016415737336</v>
+      </c>
+      <c r="O29">
+        <v>1.000061554049136</v>
+      </c>
+      <c r="P29">
+        <v>0.9999076689439799</v>
+      </c>
+      <c r="Q29">
+        <v>1.000004323337202</v>
+      </c>
+      <c r="R29">
+        <v>0.9999931650871066</v>
+      </c>
+      <c r="S29">
+        <v>0.9999208101710759</v>
+      </c>
+      <c r="T29">
+        <v>0.9999931650871066</v>
+      </c>
+      <c r="U29">
+        <v>0.9999816469716469</v>
+      </c>
+      <c r="V29">
+        <v>1.00001814905199</v>
+      </c>
+      <c r="W29">
+        <v>0.9999837716747328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="D30">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="E30">
+        <v>1.000113104595204</v>
+      </c>
+      <c r="F30">
+        <v>0.9999345196491572</v>
+      </c>
+      <c r="G30">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="H30">
+        <v>0.9998018452855616</v>
+      </c>
+      <c r="I30">
+        <v>0.9999390431892334</v>
+      </c>
+      <c r="J30">
+        <v>0.9996952468090634</v>
+      </c>
+      <c r="K30">
+        <v>0.9996952468090634</v>
+      </c>
+      <c r="L30">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="M30">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="N30">
+        <v>1.000203172380484</v>
+      </c>
+      <c r="O30">
+        <v>1.000076187853195</v>
+      </c>
+      <c r="P30">
+        <v>0.9998857173311294</v>
+      </c>
+      <c r="Q30">
+        <v>1.000005353751176</v>
+      </c>
+      <c r="R30">
+        <v>0.9999915356809144</v>
+      </c>
+      <c r="S30">
+        <v>0.9999019847704721</v>
+      </c>
+      <c r="T30">
+        <v>0.9999915356809144</v>
+      </c>
+      <c r="U30">
+        <v>0.9999772816729751</v>
+      </c>
+      <c r="V30">
+        <v>1.000022459814477</v>
+      </c>
+      <c r="W30">
+        <v>0.9999799134518867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9996993446052019</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9996993446052019</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9998325773606825</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000096919119529</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9998872578642235</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000293234878969</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000090194534204</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.00045098747777</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.00045098747777</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9998872578642235</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9996993446052019</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9996993446052019</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9998872578642235</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000169122670997</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999920884918765</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000012529982399</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000145054820508</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000012529982399</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000033627266681</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999667707343853</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.0000297217131</v>
       </c>
     </row>
